--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111790472</v>
+        <v>111789785</v>
       </c>
       <c r="B98" t="n">
-        <v>88909</v>
+        <v>90187</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,42 +12176,42 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>720</v>
+        <v>2014</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>650060.7258570738</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R98" t="n">
-        <v>6648731.505709799</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S98" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,12 +12250,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Precis på/vid stig. Andra mycel åt båda håll.</t>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,10 +12282,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111789261</v>
+        <v>111790472</v>
       </c>
       <c r="B99" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12294,31 +12294,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
@@ -12360,7 +12358,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12370,7 +12368,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Precis på/vid stig. Andra mycel åt båda håll.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12397,10 +12400,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111789368</v>
+        <v>111790550</v>
       </c>
       <c r="B100" t="n">
-        <v>88909</v>
+        <v>90655</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12413,21 +12416,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12438,13 +12441,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>650001.3452252811</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R100" t="n">
-        <v>6648758.685092625</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S100" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12473,7 +12476,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12483,12 +12486,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>17:09</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12499,11 +12497,6 @@
       </c>
       <c r="AG100" t="b">
         <v>0</v>
-      </c>
-      <c r="AH100" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
@@ -12520,10 +12513,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111790914</v>
+        <v>111789319</v>
       </c>
       <c r="B101" t="n">
-        <v>90662</v>
+        <v>88915</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12532,25 +12525,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4363</v>
+        <v>5734</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12561,13 +12554,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>650131.1687508342</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R101" t="n">
-        <v>6648444.465040453</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S101" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12596,7 +12589,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12606,7 +12599,12 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12617,6 +12615,11 @@
       </c>
       <c r="AG101" t="b">
         <v>0</v>
+      </c>
+      <c r="AH101" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
@@ -12633,10 +12636,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111789785</v>
+        <v>111789261</v>
       </c>
       <c r="B102" t="n">
-        <v>90187</v>
+        <v>88915</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12649,38 +12652,40 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2014</v>
+        <v>5734</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>649874.9776032839</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R102" t="n">
-        <v>6648703.402536019</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S102" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12709,7 +12714,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12719,12 +12724,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12751,10 +12751,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111789319</v>
+        <v>111789368</v>
       </c>
       <c r="B103" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12763,25 +12763,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12792,10 +12792,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>650042.1747608959</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R103" t="n">
-        <v>6648755.327700124</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12837,12 +12837,12 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12992,10 +12992,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111790550</v>
+        <v>111790914</v>
       </c>
       <c r="B105" t="n">
-        <v>90655</v>
+        <v>90662</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -13004,25 +13004,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>150</v>
+        <v>4363</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13033,13 +13033,13 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>649935.1292544806</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R105" t="n">
-        <v>6648620.078297745</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S105" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD105" t="b">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY106"/>
+  <dimension ref="A1:AY107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111789785</v>
+        <v>111789261</v>
       </c>
       <c r="B98" t="n">
-        <v>90187</v>
+        <v>88915</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12180,38 +12180,40 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2014</v>
+        <v>5734</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>649874.9776032839</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R98" t="n">
-        <v>6648703.402536019</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S98" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12240,7 +12242,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,12 +12252,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,7 +12279,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111790472</v>
+        <v>111790355</v>
       </c>
       <c r="B99" t="n">
         <v>88909</v>
@@ -12358,7 +12355,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12368,12 +12365,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>Precis på/vid stig. Andra mycel åt båda håll.</t>
+          <t>Stort mycel (6 m diameter) intill ett kärr under en granlåga.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12513,10 +12510,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111789319</v>
+        <v>111789785</v>
       </c>
       <c r="B101" t="n">
-        <v>88915</v>
+        <v>90187</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12529,21 +12526,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5734</v>
+        <v>2014</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12554,13 +12551,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>650042.1747608959</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R101" t="n">
-        <v>6648755.327700124</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S101" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12589,7 +12586,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12599,12 +12596,12 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12615,11 +12612,6 @@
       </c>
       <c r="AG101" t="b">
         <v>0</v>
-      </c>
-      <c r="AH101" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
@@ -12636,10 +12628,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111789261</v>
+        <v>111790914</v>
       </c>
       <c r="B102" t="n">
-        <v>88915</v>
+        <v>90662</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12648,44 +12640,42 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5734</v>
+        <v>4363</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>650060.7258570738</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R102" t="n">
-        <v>6648731.505709799</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S102" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12714,7 +12704,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12724,7 +12714,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12751,7 +12741,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111789368</v>
+        <v>111789477</v>
       </c>
       <c r="B103" t="n">
         <v>88909</v>
@@ -12792,10 +12782,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>650001.3452252811</v>
+        <v>649983.3633731108</v>
       </c>
       <c r="R103" t="n">
-        <v>6648758.685092625</v>
+        <v>6648731.373486301</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12842,7 +12832,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12853,11 +12843,6 @@
       </c>
       <c r="AG103" t="b">
         <v>0</v>
-      </c>
-      <c r="AH103" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
@@ -12874,10 +12859,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111789477</v>
+        <v>111789319</v>
       </c>
       <c r="B104" t="n">
-        <v>88909</v>
+        <v>88915</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12886,25 +12871,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>720</v>
+        <v>5734</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12915,10 +12900,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>649983.3633731108</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R104" t="n">
-        <v>6648731.373486301</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12950,7 +12935,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12960,12 +12945,12 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12976,6 +12961,11 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -12992,10 +12982,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111790914</v>
+        <v>111789368</v>
       </c>
       <c r="B105" t="n">
-        <v>90662</v>
+        <v>88909</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -13004,25 +12994,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4363</v>
+        <v>720</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13033,13 +13023,13 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>650131.1687508342</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R105" t="n">
-        <v>6648444.465040453</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S105" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -13068,7 +13058,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13078,7 +13068,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13089,6 +13084,11 @@
       </c>
       <c r="AG105" t="b">
         <v>0</v>
+      </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
@@ -13221,6 +13221,124 @@
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>111852345</v>
+      </c>
+      <c r="B107" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Storvreta (Storvreta), Upl</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>650070.7798570187</v>
+      </c>
+      <c r="R107" t="n">
+        <v>6648471.604924335</v>
+      </c>
+      <c r="S107" t="n">
+        <v>20</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>30 meter öster om annan samling. Bild saknas pga instabil hemsida!</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Henrik Lysell</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Henrik Lysell</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111789261</v>
+        <v>111789785</v>
       </c>
       <c r="B98" t="n">
-        <v>88915</v>
+        <v>90187</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12180,40 +12180,38 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5734</v>
+        <v>2014</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>650060.7258570738</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R98" t="n">
-        <v>6648731.505709799</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S98" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12242,7 +12240,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12252,7 +12250,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12279,7 +12282,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111790355</v>
+        <v>111790412</v>
       </c>
       <c r="B99" t="n">
         <v>88909</v>
@@ -12355,7 +12358,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12365,12 +12368,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>Stort mycel (6 m diameter) intill ett kärr under en granlåga.</t>
+          <t>Separat mycel med många fruktkroppar intill ett annat stort mycel. Båda intill ett kärr.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12397,10 +12400,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111790550</v>
+        <v>111789368</v>
       </c>
       <c r="B100" t="n">
-        <v>90655</v>
+        <v>88909</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12413,21 +12416,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12438,13 +12441,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>649935.1292544806</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R100" t="n">
-        <v>6648620.078297745</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S100" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12473,7 +12476,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12483,7 +12486,12 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12494,6 +12502,11 @@
       </c>
       <c r="AG100" t="b">
         <v>0</v>
+      </c>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
@@ -12510,10 +12523,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111789785</v>
+        <v>111789261</v>
       </c>
       <c r="B101" t="n">
-        <v>90187</v>
+        <v>88915</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12526,38 +12539,40 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2014</v>
+        <v>5734</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>649874.9776032839</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R101" t="n">
-        <v>6648703.402536019</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S101" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12586,7 +12601,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12596,12 +12611,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12628,10 +12638,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111790914</v>
+        <v>111790550</v>
       </c>
       <c r="B102" t="n">
-        <v>90662</v>
+        <v>90655</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12640,25 +12650,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4363</v>
+        <v>150</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12669,13 +12679,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>650131.1687508342</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R102" t="n">
-        <v>6648444.465040453</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S102" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12704,7 +12714,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12714,7 +12724,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12859,10 +12869,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111789319</v>
+        <v>111790914</v>
       </c>
       <c r="B104" t="n">
-        <v>88915</v>
+        <v>90662</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12871,25 +12881,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5734</v>
+        <v>4363</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12900,13 +12910,13 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>650042.1747608959</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R104" t="n">
-        <v>6648755.327700124</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S104" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12935,7 +12945,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12945,12 +12955,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>16:58</t>
-        </is>
-      </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12961,11 +12966,6 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
-      </c>
-      <c r="AH104" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -12982,10 +12982,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789368</v>
+        <v>111789319</v>
       </c>
       <c r="B105" t="n">
-        <v>88909</v>
+        <v>88915</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12994,25 +12994,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>720</v>
+        <v>5734</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13023,10 +13023,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>650001.3452252811</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R105" t="n">
-        <v>6648758.685092625</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD105" t="b">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111789785</v>
+        <v>111790508</v>
       </c>
       <c r="B98" t="n">
-        <v>90187</v>
+        <v>88909</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,42 +12176,42 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2014</v>
+        <v>720</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>649874.9776032839</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R98" t="n">
-        <v>6648703.402536019</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S98" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,12 +12250,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>Fyra meter brett mycel med många fruktkroppar ca 20 meter söder om stig (Ö-&gt;V)</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,10 +12282,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111790412</v>
+        <v>111789261</v>
       </c>
       <c r="B99" t="n">
-        <v>88909</v>
+        <v>88915</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12294,29 +12294,31 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>720</v>
+        <v>5734</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
@@ -12358,7 +12360,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12368,12 +12370,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>18:04</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Separat mycel med många fruktkroppar intill ett annat stort mycel. Båda intill ett kärr.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12400,10 +12397,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111789368</v>
+        <v>111790914</v>
       </c>
       <c r="B100" t="n">
-        <v>88909</v>
+        <v>90662</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12412,25 +12409,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>720</v>
+        <v>4363</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12441,13 +12438,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>650001.3452252811</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R100" t="n">
-        <v>6648758.685092625</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S100" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12476,7 +12473,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12486,12 +12483,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>17:09</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12502,11 +12494,6 @@
       </c>
       <c r="AG100" t="b">
         <v>0</v>
-      </c>
-      <c r="AH100" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
@@ -12523,10 +12510,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111789261</v>
+        <v>111791986</v>
       </c>
       <c r="B101" t="n">
-        <v>88915</v>
+        <v>88982</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12539,27 +12526,25 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5734</v>
+        <v>937</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
@@ -12596,22 +12581,27 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12638,10 +12628,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111790550</v>
+        <v>111789319</v>
       </c>
       <c r="B102" t="n">
-        <v>90655</v>
+        <v>88915</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12650,25 +12640,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>150</v>
+        <v>5734</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12679,13 +12669,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>649935.1292544806</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R102" t="n">
-        <v>6648620.078297745</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S102" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12714,7 +12704,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12724,7 +12714,12 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12735,6 +12730,11 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -12869,10 +12869,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111790914</v>
+        <v>111789368</v>
       </c>
       <c r="B104" t="n">
-        <v>90662</v>
+        <v>88909</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12881,25 +12881,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4363</v>
+        <v>720</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12910,13 +12910,13 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>650131.1687508342</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R104" t="n">
-        <v>6648444.465040453</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S104" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12955,7 +12955,12 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12966,6 +12971,11 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -12982,10 +12992,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789319</v>
+        <v>111789785</v>
       </c>
       <c r="B105" t="n">
-        <v>88915</v>
+        <v>90187</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12998,21 +13008,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5734</v>
+        <v>2014</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13023,13 +13033,13 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>650042.1747608959</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R105" t="n">
-        <v>6648755.327700124</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S105" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -13058,7 +13068,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13068,12 +13078,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13084,11 +13094,6 @@
       </c>
       <c r="AG105" t="b">
         <v>0</v>
-      </c>
-      <c r="AH105" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
@@ -13105,10 +13110,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111791986</v>
+        <v>111790550</v>
       </c>
       <c r="B106" t="n">
-        <v>88982</v>
+        <v>90655</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13117,42 +13122,42 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>937</v>
+        <v>150</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>650060.7258570738</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R106" t="n">
-        <v>6648731.505709799</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S106" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -13176,27 +13181,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY107"/>
+  <dimension ref="A1:AY108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13339,6 +13339,127 @@
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>111961388</v>
+      </c>
+      <c r="B108" t="n">
+        <v>90021</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>barrskog SV himmelsvägen, Upl</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>650338.0881549595</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6648421.780238773</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>vid basen av tall söder om stigen</t>
+        </is>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY108"/>
+  <dimension ref="A1:AY110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111790508</v>
+        <v>111789785</v>
       </c>
       <c r="B98" t="n">
-        <v>88909</v>
+        <v>90187</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,42 +12176,42 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>720</v>
+        <v>2014</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>650060.7258570738</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R98" t="n">
-        <v>6648731.505709799</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S98" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,12 +12250,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Fyra meter brett mycel med många fruktkroppar ca 20 meter söder om stig (Ö-&gt;V)</t>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,10 +12282,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111789261</v>
+        <v>111790412</v>
       </c>
       <c r="B99" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12294,31 +12294,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
@@ -12360,7 +12358,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12370,7 +12368,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Separat mycel med många fruktkroppar intill ett annat stort mycel. Båda intill ett kärr.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12397,10 +12400,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111790914</v>
+        <v>111789368</v>
       </c>
       <c r="B100" t="n">
-        <v>90662</v>
+        <v>88909</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12409,25 +12412,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4363</v>
+        <v>720</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12438,13 +12441,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>650131.1687508342</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R100" t="n">
-        <v>6648444.465040453</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S100" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12473,7 +12476,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12483,7 +12486,12 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12494,6 +12502,11 @@
       </c>
       <c r="AG100" t="b">
         <v>0</v>
+      </c>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
@@ -12510,10 +12523,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111791986</v>
+        <v>111790550</v>
       </c>
       <c r="B101" t="n">
-        <v>88982</v>
+        <v>90655</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12522,42 +12535,42 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>937</v>
+        <v>150</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>650060.7258570738</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R101" t="n">
-        <v>6648731.505709799</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S101" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12581,27 +12594,22 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12628,10 +12636,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111789319</v>
+        <v>111790914</v>
       </c>
       <c r="B102" t="n">
-        <v>88915</v>
+        <v>90662</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12640,25 +12648,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5734</v>
+        <v>4363</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12669,13 +12677,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>650042.1747608959</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R102" t="n">
-        <v>6648755.327700124</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S102" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12704,7 +12712,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12714,12 +12722,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>16:58</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12730,11 +12733,6 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
-      </c>
-      <c r="AH102" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -12869,10 +12867,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111789368</v>
+        <v>111791986</v>
       </c>
       <c r="B104" t="n">
-        <v>88909</v>
+        <v>88982</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12881,42 +12879,42 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>720</v>
+        <v>937</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>650001.3452252811</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R104" t="n">
-        <v>6648758.685092625</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S104" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12940,27 +12938,27 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12971,11 +12969,6 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
-      </c>
-      <c r="AH104" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -12992,10 +12985,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789785</v>
+        <v>111789319</v>
       </c>
       <c r="B105" t="n">
-        <v>90187</v>
+        <v>88915</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -13008,21 +13001,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2014</v>
+        <v>5734</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13033,13 +13026,13 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>649874.9776032839</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R105" t="n">
-        <v>6648703.402536019</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S105" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -13068,7 +13061,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13078,12 +13071,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13094,6 +13087,11 @@
       </c>
       <c r="AG105" t="b">
         <v>0</v>
+      </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
@@ -13110,10 +13108,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111790550</v>
+        <v>111789261</v>
       </c>
       <c r="B106" t="n">
-        <v>90655</v>
+        <v>88915</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13122,42 +13120,44 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>150</v>
+        <v>5734</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>649935.1292544806</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R106" t="n">
-        <v>6648620.078297745</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S106" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -13460,6 +13460,242 @@
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>111984708</v>
+      </c>
+      <c r="B109" t="n">
+        <v>88909</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>720</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Violgubbe</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Gomphus clavatus</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Storvreta (Storvreta), Upl</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>650056.8292729721</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6648629.533134428</v>
+      </c>
+      <c r="S109" t="n">
+        <v>20</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
+        </is>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>Henrik Lysell</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>Henrik Lysell</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>111984394</v>
+      </c>
+      <c r="B110" t="n">
+        <v>90662</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Storvreta (Storvreta), Upl</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>650056.8292729721</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6648629.533134428</v>
+      </c>
+      <c r="S110" t="n">
+        <v>20</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
+        </is>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>Henrik Lysell</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>Henrik Lysell</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111789785</v>
+        <v>111790508</v>
       </c>
       <c r="B98" t="n">
-        <v>90187</v>
+        <v>88909</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,42 +12176,42 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2014</v>
+        <v>720</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>649874.9776032839</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R98" t="n">
-        <v>6648703.402536019</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S98" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,12 +12250,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>Fyra meter brett mycel med många fruktkroppar ca 20 meter söder om stig (Ö-&gt;V)</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,10 +12282,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111790412</v>
+        <v>111789785</v>
       </c>
       <c r="B99" t="n">
-        <v>88909</v>
+        <v>90187</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12294,42 +12294,42 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>720</v>
+        <v>2014</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>650060.7258570738</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R99" t="n">
-        <v>6648731.505709799</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S99" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12368,12 +12368,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>Separat mycel med många fruktkroppar intill ett annat stort mycel. Båda intill ett kärr.</t>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12400,10 +12400,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111789368</v>
+        <v>111791986</v>
       </c>
       <c r="B100" t="n">
-        <v>88909</v>
+        <v>88982</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12412,42 +12412,42 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>720</v>
+        <v>937</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>650001.3452252811</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R100" t="n">
-        <v>6648758.685092625</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S100" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12471,27 +12471,27 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12502,11 +12502,6 @@
       </c>
       <c r="AG100" t="b">
         <v>0</v>
-      </c>
-      <c r="AH100" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
@@ -12523,10 +12518,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111790550</v>
+        <v>111789261</v>
       </c>
       <c r="B101" t="n">
-        <v>90655</v>
+        <v>88915</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12535,42 +12530,44 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>150</v>
+        <v>5734</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>649935.1292544806</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R101" t="n">
-        <v>6648620.078297745</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S101" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12599,7 +12596,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12609,7 +12606,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12636,10 +12633,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111790914</v>
+        <v>111789319</v>
       </c>
       <c r="B102" t="n">
-        <v>90662</v>
+        <v>88915</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12648,25 +12645,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4363</v>
+        <v>5734</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12677,13 +12674,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>650131.1687508342</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R102" t="n">
-        <v>6648444.465040453</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S102" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12712,7 +12709,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12722,7 +12719,12 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12733,6 +12735,11 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -12749,10 +12756,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111789477</v>
+        <v>111790550</v>
       </c>
       <c r="B103" t="n">
-        <v>88909</v>
+        <v>90655</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12765,21 +12772,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12790,13 +12797,13 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>649983.3633731108</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R103" t="n">
-        <v>6648731.373486301</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S103" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -12825,7 +12832,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12835,12 +12842,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>17:09</t>
-        </is>
-      </c>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12867,10 +12869,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111791986</v>
+        <v>111789477</v>
       </c>
       <c r="B104" t="n">
-        <v>88982</v>
+        <v>88909</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12879,42 +12881,42 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>937</v>
+        <v>720</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>650060.7258570738</v>
+        <v>649983.3633731108</v>
       </c>
       <c r="R104" t="n">
-        <v>6648731.505709799</v>
+        <v>6648731.373486301</v>
       </c>
       <c r="S104" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12938,27 +12940,27 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12985,10 +12987,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789319</v>
+        <v>111789368</v>
       </c>
       <c r="B105" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12997,25 +12999,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13026,10 +13028,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>650042.1747608959</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R105" t="n">
-        <v>6648755.327700124</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -13061,7 +13063,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13071,12 +13073,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13108,10 +13110,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111789261</v>
+        <v>111790914</v>
       </c>
       <c r="B106" t="n">
-        <v>88915</v>
+        <v>90662</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13120,44 +13122,42 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5734</v>
+        <v>4363</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>650060.7258570738</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R106" t="n">
-        <v>6648731.505709799</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S106" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -12400,10 +12400,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111791986</v>
+        <v>111789261</v>
       </c>
       <c r="B100" t="n">
-        <v>88982</v>
+        <v>88915</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12416,25 +12416,27 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>937</v>
+        <v>5734</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
@@ -12471,27 +12473,22 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12518,10 +12515,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111789261</v>
+        <v>111791986</v>
       </c>
       <c r="B101" t="n">
-        <v>88915</v>
+        <v>88982</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12534,27 +12531,25 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5734</v>
+        <v>937</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
@@ -12591,22 +12586,27 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD101" t="b">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY110"/>
+  <dimension ref="A1:AY112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111790508</v>
+        <v>111790355</v>
       </c>
       <c r="B98" t="n">
         <v>88909</v>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,12 +12250,12 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Fyra meter brett mycel med många fruktkroppar ca 20 meter söder om stig (Ö-&gt;V)</t>
+          <t>Stort mycel (6 m diameter) intill ett kärr under en granlåga.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,10 +12282,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111789785</v>
+        <v>111789368</v>
       </c>
       <c r="B99" t="n">
-        <v>90187</v>
+        <v>88909</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12294,25 +12294,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2014</v>
+        <v>720</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12323,13 +12323,13 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>649874.9776032839</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R99" t="n">
-        <v>6648703.402536019</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S99" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12368,12 +12368,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12384,6 +12384,11 @@
       </c>
       <c r="AG99" t="b">
         <v>0</v>
+      </c>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
@@ -12400,10 +12405,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111789261</v>
+        <v>111790914</v>
       </c>
       <c r="B100" t="n">
-        <v>88915</v>
+        <v>90662</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12412,44 +12417,42 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5734</v>
+        <v>4363</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>650060.7258570738</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R100" t="n">
-        <v>6648731.505709799</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S100" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12478,7 +12481,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12488,7 +12491,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12633,10 +12636,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111789319</v>
+        <v>111789785</v>
       </c>
       <c r="B102" t="n">
-        <v>88915</v>
+        <v>90187</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12649,21 +12652,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5734</v>
+        <v>2014</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12674,13 +12677,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>650042.1747608959</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R102" t="n">
-        <v>6648755.327700124</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S102" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12709,7 +12712,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12719,12 +12722,12 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12735,11 +12738,6 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
-      </c>
-      <c r="AH102" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -12756,10 +12754,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111790550</v>
+        <v>111789319</v>
       </c>
       <c r="B103" t="n">
-        <v>90655</v>
+        <v>88915</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12768,25 +12766,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>150</v>
+        <v>5734</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12797,13 +12795,13 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>649935.1292544806</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R103" t="n">
-        <v>6648620.078297745</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S103" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -12832,7 +12830,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12842,7 +12840,12 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12853,6 +12856,11 @@
       </c>
       <c r="AG103" t="b">
         <v>0</v>
+      </c>
+      <c r="AH103" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
@@ -12987,10 +12995,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789368</v>
+        <v>111790550</v>
       </c>
       <c r="B105" t="n">
-        <v>88909</v>
+        <v>90655</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -13003,21 +13011,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13028,13 +13036,13 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>650001.3452252811</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R105" t="n">
-        <v>6648758.685092625</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S105" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -13063,7 +13071,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13073,12 +13081,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:09</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13089,11 +13092,6 @@
       </c>
       <c r="AG105" t="b">
         <v>0</v>
-      </c>
-      <c r="AH105" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
@@ -13110,10 +13108,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111790914</v>
+        <v>111789261</v>
       </c>
       <c r="B106" t="n">
-        <v>90662</v>
+        <v>88915</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13122,42 +13120,44 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4363</v>
+        <v>5734</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>650131.1687508342</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R106" t="n">
-        <v>6648444.465040453</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S106" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -13462,10 +13462,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111984708</v>
+        <v>111984394</v>
       </c>
       <c r="B109" t="n">
-        <v>88909</v>
+        <v>90662</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13474,25 +13474,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>720</v>
+        <v>4363</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -13548,12 +13548,12 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
+          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13580,10 +13580,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111984394</v>
+        <v>111984708</v>
       </c>
       <c r="B110" t="n">
-        <v>90662</v>
+        <v>88909</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13592,25 +13592,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4363</v>
+        <v>720</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13666,12 +13666,12 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
+          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13695,6 +13695,252 @@
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>112067710</v>
+      </c>
+      <c r="B111" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Barrskog V Himmelsvägen, Upl</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>650096.3907525463</v>
+      </c>
+      <c r="R111" t="n">
+        <v>6648743.988407147</v>
+      </c>
+      <c r="S111" t="n">
+        <v>10</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>beige-gul-brun. vit fot. ingen speciell doft eller smak. maskäten i foten. äldre exemplar inom några meter förutsätts vara samma art.</t>
+        </is>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112063812</v>
+      </c>
+      <c r="B112" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Barrskog V Himmelsvägen, Upl</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>650048.6548849966</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6648645.250869188</v>
+      </c>
+      <c r="S112" t="n">
+        <v>10</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC112" t="inlineStr">
+        <is>
+          <t>Flera små, ganska torra, fruktkroppar</t>
+        </is>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY112"/>
+  <dimension ref="A1:AY113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111790355</v>
+        <v>111791986</v>
       </c>
       <c r="B98" t="n">
-        <v>88909</v>
+        <v>88982</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,25 +12176,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>720</v>
+        <v>937</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12235,27 +12235,27 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Stort mycel (6 m diameter) intill ett kärr under en granlåga.</t>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,7 +12282,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111789368</v>
+        <v>111790412</v>
       </c>
       <c r="B99" t="n">
         <v>88909</v>
@@ -12319,17 +12319,17 @@
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>650001.3452252811</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R99" t="n">
-        <v>6648758.685092625</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S99" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12368,12 +12368,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Separat mycel med många fruktkroppar intill ett annat stort mycel. Båda intill ett kärr.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12384,11 +12384,6 @@
       </c>
       <c r="AG99" t="b">
         <v>0</v>
-      </c>
-      <c r="AH99" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
@@ -12405,10 +12400,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111790914</v>
+        <v>111790550</v>
       </c>
       <c r="B100" t="n">
-        <v>90662</v>
+        <v>90655</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12417,25 +12412,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4363</v>
+        <v>150</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12446,13 +12441,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>650131.1687508342</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R100" t="n">
-        <v>6648444.465040453</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S100" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12481,7 +12476,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12491,7 +12486,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12518,10 +12513,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111791986</v>
+        <v>111789477</v>
       </c>
       <c r="B101" t="n">
-        <v>88982</v>
+        <v>88909</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12530,42 +12525,42 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>937</v>
+        <v>720</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>650060.7258570738</v>
+        <v>649983.3633731108</v>
       </c>
       <c r="R101" t="n">
-        <v>6648731.505709799</v>
+        <v>6648731.373486301</v>
       </c>
       <c r="S101" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12589,27 +12584,27 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12636,10 +12631,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111789785</v>
+        <v>111789319</v>
       </c>
       <c r="B102" t="n">
-        <v>90187</v>
+        <v>88915</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12652,21 +12647,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2014</v>
+        <v>5734</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12677,13 +12672,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>649874.9776032839</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R102" t="n">
-        <v>6648703.402536019</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S102" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12712,7 +12707,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12722,12 +12717,12 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12738,6 +12733,11 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -12754,10 +12754,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111789319</v>
+        <v>111790914</v>
       </c>
       <c r="B103" t="n">
-        <v>88915</v>
+        <v>90662</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12766,25 +12766,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5734</v>
+        <v>4363</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12795,13 +12795,13 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>650042.1747608959</v>
+        <v>650131.1687508342</v>
       </c>
       <c r="R103" t="n">
-        <v>6648755.327700124</v>
+        <v>6648444.465040453</v>
       </c>
       <c r="S103" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12840,12 +12840,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>16:58</t>
-        </is>
-      </c>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12856,11 +12851,6 @@
       </c>
       <c r="AG103" t="b">
         <v>0</v>
-      </c>
-      <c r="AH103" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
@@ -12877,10 +12867,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111789477</v>
+        <v>111789261</v>
       </c>
       <c r="B104" t="n">
-        <v>88909</v>
+        <v>88915</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12889,42 +12879,44 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>720</v>
+        <v>5734</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>649983.3633731108</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R104" t="n">
-        <v>6648731.373486301</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S104" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12953,7 +12945,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12963,12 +12955,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>17:09</t>
-        </is>
-      </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12995,10 +12982,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111790550</v>
+        <v>111789785</v>
       </c>
       <c r="B105" t="n">
-        <v>90655</v>
+        <v>90187</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -13007,25 +12994,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>150</v>
+        <v>2014</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -13036,10 +13023,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>649935.1292544806</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R105" t="n">
-        <v>6648620.078297745</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S105" t="n">
         <v>20</v>
@@ -13071,7 +13058,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13081,7 +13068,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13108,10 +13100,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111789261</v>
+        <v>111789368</v>
       </c>
       <c r="B106" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13120,44 +13112,42 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>650060.7258570738</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R106" t="n">
-        <v>6648731.505709799</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S106" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -13186,7 +13176,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -13196,7 +13186,12 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -13207,6 +13202,11 @@
       </c>
       <c r="AG106" t="b">
         <v>0</v>
+      </c>
+      <c r="AH106" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
@@ -13462,10 +13462,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111984394</v>
+        <v>111984708</v>
       </c>
       <c r="B109" t="n">
-        <v>90662</v>
+        <v>88909</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13474,25 +13474,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4363</v>
+        <v>720</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -13548,12 +13548,12 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
+          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13580,10 +13580,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111984708</v>
+        <v>111984394</v>
       </c>
       <c r="B110" t="n">
-        <v>88909</v>
+        <v>90662</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13592,25 +13592,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>720</v>
+        <v>4363</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13666,12 +13666,12 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
+          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13698,10 +13698,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112067710</v>
+        <v>112063812</v>
       </c>
       <c r="B111" t="n">
-        <v>88966</v>
+        <v>90678</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13710,28 +13710,32 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5754</v>
+        <v>4366</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
@@ -13741,10 +13745,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>650096.3907525463</v>
+        <v>650048.6548849966</v>
       </c>
       <c r="R111" t="n">
-        <v>6648743.988407147</v>
+        <v>6648645.250869188</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13791,7 +13795,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>beige-gul-brun. vit fot. ingen speciell doft eller smak. maskäten i foten. äldre exemplar inom några meter förutsätts vara samma art.</t>
+          <t>Flera små, ganska torra, fruktkroppar</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13819,10 +13823,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112063812</v>
+        <v>112139297</v>
       </c>
       <c r="B112" t="n">
-        <v>90678</v>
+        <v>88909</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13831,45 +13835,41 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4366</v>
+        <v>720</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Barrskog V Himmelsvägen, Upl</t>
+          <t>barrskog V himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>650048.6548849966</v>
+        <v>650012.2168472378</v>
       </c>
       <c r="R112" t="n">
-        <v>6648645.250869188</v>
+        <v>6648763.138812571</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
@@ -13906,17 +13906,12 @@
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>Flera små, ganska torra, fruktkroppar</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -13941,6 +13936,127 @@
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112139372</v>
+      </c>
+      <c r="B113" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>barrskog V himmelsvägen, Upl</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>649885.7169699427</v>
+      </c>
+      <c r="R113" t="n">
+        <v>6648971.151017974</v>
+      </c>
+      <c r="S113" t="n">
+        <v>10</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>På/intill stigen</t>
+        </is>
+      </c>
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t>Gry Benediktson</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111791986</v>
+        <v>111790508</v>
       </c>
       <c r="B98" t="n">
-        <v>88982</v>
+        <v>88909</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,25 +12176,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>937</v>
+        <v>720</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12235,27 +12235,27 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>Fyra meter brett mycel med många fruktkroppar ca 20 meter söder om stig (Ö-&gt;V)</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,7 +12282,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111790412</v>
+        <v>111789368</v>
       </c>
       <c r="B99" t="n">
         <v>88909</v>
@@ -12319,17 +12319,17 @@
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>650060.7258570738</v>
+        <v>650001.3452252811</v>
       </c>
       <c r="R99" t="n">
-        <v>6648731.505709799</v>
+        <v>6648758.685092625</v>
       </c>
       <c r="S99" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12368,12 +12368,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>Separat mycel med många fruktkroppar intill ett annat stort mycel. Båda intill ett kärr.</t>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12384,6 +12384,11 @@
       </c>
       <c r="AG99" t="b">
         <v>0</v>
+      </c>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
@@ -12400,10 +12405,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111790550</v>
+        <v>111789785</v>
       </c>
       <c r="B100" t="n">
-        <v>90655</v>
+        <v>90187</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12412,25 +12417,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>150</v>
+        <v>2014</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12441,10 +12446,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>649935.1292544806</v>
+        <v>649874.9776032839</v>
       </c>
       <c r="R100" t="n">
-        <v>6648620.078297745</v>
+        <v>6648703.402536019</v>
       </c>
       <c r="S100" t="n">
         <v>20</v>
@@ -12476,7 +12481,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12486,7 +12491,12 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12631,10 +12641,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111789319</v>
+        <v>111790550</v>
       </c>
       <c r="B102" t="n">
-        <v>88915</v>
+        <v>90655</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12643,25 +12653,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5734</v>
+        <v>150</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12672,13 +12682,13 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>650042.1747608959</v>
+        <v>649935.1292544806</v>
       </c>
       <c r="R102" t="n">
-        <v>6648755.327700124</v>
+        <v>6648620.078297745</v>
       </c>
       <c r="S102" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12707,7 +12717,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12717,12 +12727,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>16:58</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12733,11 +12738,6 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
-      </c>
-      <c r="AH102" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -12867,7 +12867,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111789261</v>
+        <v>111789319</v>
       </c>
       <c r="B104" t="n">
         <v>88915</v>
@@ -12901,22 +12901,20 @@
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>650060.7258570738</v>
+        <v>650042.1747608959</v>
       </c>
       <c r="R104" t="n">
-        <v>6648731.505709799</v>
+        <v>6648755.327700124</v>
       </c>
       <c r="S104" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12945,7 +12943,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12955,7 +12953,12 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12966,6 +12969,11 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -12982,10 +12990,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789785</v>
+        <v>111789261</v>
       </c>
       <c r="B105" t="n">
-        <v>90187</v>
+        <v>88915</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12998,38 +13006,40 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2014</v>
+        <v>5734</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>649874.9776032839</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R105" t="n">
-        <v>6648703.402536019</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S105" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -13058,7 +13068,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13068,12 +13078,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13100,10 +13105,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111789368</v>
+        <v>111791986</v>
       </c>
       <c r="B106" t="n">
-        <v>88909</v>
+        <v>88982</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13112,42 +13117,42 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>720</v>
+        <v>937</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>650001.3452252811</v>
+        <v>650060.7258570738</v>
       </c>
       <c r="R106" t="n">
-        <v>6648758.685092625</v>
+        <v>6648731.505709799</v>
       </c>
       <c r="S106" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -13171,27 +13176,27 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -13202,11 +13207,6 @@
       </c>
       <c r="AG106" t="b">
         <v>0</v>
-      </c>
-      <c r="AH106" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
@@ -13462,10 +13462,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111984708</v>
+        <v>111984394</v>
       </c>
       <c r="B109" t="n">
-        <v>88909</v>
+        <v>90662</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13474,25 +13474,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>720</v>
+        <v>4363</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -13548,12 +13548,12 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
+          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13580,10 +13580,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111984394</v>
+        <v>111984708</v>
       </c>
       <c r="B110" t="n">
-        <v>90662</v>
+        <v>88909</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13592,25 +13592,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4363</v>
+        <v>720</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13666,12 +13666,12 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
+          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
         </is>
       </c>
       <c r="AD110" t="b">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111790508</v>
+        <v>111790914</v>
       </c>
       <c r="B98" t="n">
-        <v>88909</v>
+        <v>90662</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,42 +12176,42 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>720</v>
+        <v>4363</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>650060.7258570738</v>
+        <v>650131</v>
       </c>
       <c r="R98" t="n">
-        <v>6648731.505709799</v>
+        <v>6648444</v>
       </c>
       <c r="S98" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,12 +12250,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>18:13</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Fyra meter brett mycel med många fruktkroppar ca 20 meter söder om stig (Ö-&gt;V)</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12282,10 +12277,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111789368</v>
+        <v>111789319</v>
       </c>
       <c r="B99" t="n">
-        <v>88909</v>
+        <v>88915</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12294,25 +12289,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>720</v>
+        <v>5734</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12323,10 +12318,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>650001.3452252811</v>
+        <v>650042</v>
       </c>
       <c r="R99" t="n">
-        <v>6648758.685092625</v>
+        <v>6648755</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12358,7 +12353,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12368,12 +12363,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12446,10 +12441,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>649874.9776032839</v>
+        <v>649875</v>
       </c>
       <c r="R100" t="n">
-        <v>6648703.402536019</v>
+        <v>6648703</v>
       </c>
       <c r="S100" t="n">
         <v>20</v>
@@ -12523,7 +12518,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111789477</v>
+        <v>111790472</v>
       </c>
       <c r="B101" t="n">
         <v>88909</v>
@@ -12560,17 +12555,17 @@
       <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>649983.3633731108</v>
+        <v>650061</v>
       </c>
       <c r="R101" t="n">
-        <v>6648731.373486301</v>
+        <v>6648732</v>
       </c>
       <c r="S101" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12599,7 +12594,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12609,12 +12604,12 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
+          <t>Precis på/vid stig. Andra mycel åt båda håll.</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12641,10 +12636,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111790550</v>
+        <v>111791986</v>
       </c>
       <c r="B102" t="n">
-        <v>90655</v>
+        <v>88982</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12653,42 +12648,42 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>150</v>
+        <v>937</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>649935.1292544806</v>
+        <v>650061</v>
       </c>
       <c r="R102" t="n">
-        <v>6648620.078297745</v>
+        <v>6648732</v>
       </c>
       <c r="S102" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12712,22 +12707,27 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12754,10 +12754,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111790914</v>
+        <v>111790550</v>
       </c>
       <c r="B103" t="n">
-        <v>90662</v>
+        <v>90655</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12766,25 +12766,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4363</v>
+        <v>150</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12795,13 +12795,13 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>650131.1687508342</v>
+        <v>649935</v>
       </c>
       <c r="R103" t="n">
-        <v>6648444.465040453</v>
+        <v>6648620</v>
       </c>
       <c r="S103" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12867,10 +12867,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111789319</v>
+        <v>111789477</v>
       </c>
       <c r="B104" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12879,25 +12879,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12908,10 +12908,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>650042.1747608959</v>
+        <v>649983</v>
       </c>
       <c r="R104" t="n">
-        <v>6648755.327700124</v>
+        <v>6648731</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12953,12 +12953,12 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12969,11 +12969,6 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
-      </c>
-      <c r="AH104" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
@@ -12990,10 +12985,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789261</v>
+        <v>111789368</v>
       </c>
       <c r="B105" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -13002,44 +12997,42 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>650060.7258570738</v>
+        <v>650001</v>
       </c>
       <c r="R105" t="n">
-        <v>6648731.505709799</v>
+        <v>6648759</v>
       </c>
       <c r="S105" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -13068,7 +13061,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -13078,7 +13071,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13089,6 +13087,11 @@
       </c>
       <c r="AG105" t="b">
         <v>0</v>
+      </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
@@ -13105,10 +13108,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111791986</v>
+        <v>111789261</v>
       </c>
       <c r="B106" t="n">
-        <v>88982</v>
+        <v>88915</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13121,35 +13124,37 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>937</v>
+        <v>5734</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>650060.7258570738</v>
+        <v>650061</v>
       </c>
       <c r="R106" t="n">
-        <v>6648731.505709799</v>
+        <v>6648732</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -13176,27 +13181,22 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -13264,10 +13264,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>650070.7798570187</v>
+        <v>650071</v>
       </c>
       <c r="R107" t="n">
-        <v>6648471.604924335</v>
+        <v>6648472</v>
       </c>
       <c r="S107" t="n">
         <v>20</v>
@@ -13384,10 +13384,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>650338.0881549595</v>
+        <v>650338</v>
       </c>
       <c r="R108" t="n">
-        <v>6648421.780238773</v>
+        <v>6648422</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -13417,19 +13417,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA108" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB108" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC108" t="inlineStr">
@@ -13462,10 +13452,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111984394</v>
+        <v>111984708</v>
       </c>
       <c r="B109" t="n">
-        <v>90662</v>
+        <v>88909</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13474,25 +13464,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4363</v>
+        <v>720</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13503,10 +13493,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>650056.8292729721</v>
+        <v>650057</v>
       </c>
       <c r="R109" t="n">
-        <v>6648629.533134428</v>
+        <v>6648630</v>
       </c>
       <c r="S109" t="n">
         <v>20</v>
@@ -13538,7 +13528,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -13548,12 +13538,12 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
+          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13580,10 +13570,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111984708</v>
+        <v>111984394</v>
       </c>
       <c r="B110" t="n">
-        <v>88909</v>
+        <v>90662</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13592,25 +13582,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>720</v>
+        <v>4363</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13621,10 +13611,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>650056.8292729721</v>
+        <v>650057</v>
       </c>
       <c r="R110" t="n">
-        <v>6648629.533134428</v>
+        <v>6648630</v>
       </c>
       <c r="S110" t="n">
         <v>20</v>
@@ -13656,7 +13646,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -13666,12 +13656,12 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Under granar, precis intill kärret och en halvmeter från stig. Två samlingar.</t>
+          <t>Nedanför granbacke i en stig (kärr ca 40 meter NV)</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13745,10 +13735,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>650048.6548849966</v>
+        <v>650049</v>
       </c>
       <c r="R111" t="n">
-        <v>6648645.250869188</v>
+        <v>6648645</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -13778,19 +13768,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA111" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr">
@@ -13866,10 +13846,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>650012.2168472378</v>
+        <v>650012</v>
       </c>
       <c r="R112" t="n">
-        <v>6648763.138812571</v>
+        <v>6648763</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13899,19 +13879,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -13982,10 +13952,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>649885.7169699427</v>
+        <v>649886</v>
       </c>
       <c r="R113" t="n">
-        <v>6648971.151017974</v>
+        <v>6648971</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -14015,19 +13985,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC113" t="inlineStr">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17350482</v>
+        <v>75192485</v>
       </c>
       <c r="B2" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,47 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Himmelsvägen dellokal 2, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>649943.4486072273</v>
+        <v>650103.2198336929</v>
       </c>
       <c r="R2" t="n">
-        <v>6649058.749137755</v>
+        <v>6649404.234400269</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -766,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,29 +774,28 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17350448</v>
+        <v>75192481</v>
       </c>
       <c r="B3" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,47 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Himmelsvägen dellokal 1, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>649944.8784185861</v>
+        <v>649878.2358779873</v>
       </c>
       <c r="R3" t="n">
-        <v>6649048.27574623</v>
+        <v>6649403.121332495</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -899,29 +886,28 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17350488</v>
+        <v>75192482</v>
       </c>
       <c r="B4" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,47 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Himmelsvägen dellokal 3, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>649942.3780607461</v>
+        <v>650046.7971632882</v>
       </c>
       <c r="R4" t="n">
-        <v>6649072.747541919</v>
+        <v>6649433.031702678</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1004,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1018,29 +998,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17349920</v>
+        <v>75192483</v>
       </c>
       <c r="B5" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,48 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lyckebo gärde, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>649933.9945525791</v>
+        <v>650115.2000405383</v>
       </c>
       <c r="R5" t="n">
-        <v>6649068.896800726</v>
+        <v>6649430.796668836</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1117,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1141,29 +1110,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52923805</v>
+        <v>96746403</v>
       </c>
       <c r="B6" t="n">
-        <v>81972</v>
+        <v>89412</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,47 +1140,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1445</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
+          <t>barrblandskog N vintergatsvägen, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>649920.5552273702</v>
+        <v>650057.0445075793</v>
       </c>
       <c r="R6" t="n">
-        <v>6649065.843873934</v>
+        <v>6649366.253520134</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1236,7 +1201,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-04-17</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1246,17 +1211,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-04-17</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1 ex 50m närmre Himmelsvägen 10</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1272,22 +1232,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56793858</v>
+        <v>111056258</v>
       </c>
       <c r="B7" t="n">
-        <v>90665</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1296,43 +1256,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
+          <t>Ekeby, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>649920.5552273702</v>
+        <v>649873.346980502</v>
       </c>
       <c r="R7" t="n">
-        <v>6649065.843873934</v>
+        <v>6649313.162568272</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1356,7 +1322,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1366,7 +1332,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1374,35 +1340,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>gick ner Ö om obj</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Karolina Bruce</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Liam Martin</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56793861</v>
+        <v>75192494</v>
       </c>
       <c r="B8" t="n">
-        <v>90674</v>
+        <v>90074</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1415,39 +1385,46 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>649920.5552273702</v>
+        <v>649956.1979587255</v>
       </c>
       <c r="R8" t="n">
-        <v>6649065.843873934</v>
+        <v>6649153.045232232</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,7 +1448,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1481,7 +1458,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1495,29 +1472,33 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Granstubbe</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57784560</v>
+        <v>75192490</v>
       </c>
       <c r="B9" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,51 +1507,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>649941.9643785226</v>
+        <v>649981.0160683265</v>
       </c>
       <c r="R9" t="n">
-        <v>6649058.187396291</v>
+        <v>6649222.253955047</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1594,7 +1565,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1604,7 +1575,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1618,26 +1589,25 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Niina Sallmén, Karolin Ring</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>57784429</v>
+        <v>17350482</v>
       </c>
       <c r="B10" t="n">
         <v>81972</v>
@@ -1672,28 +1642,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Upl</t>
+          <t>Himmelsvägen dellokal 2, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>649932.2461525318</v>
+        <v>649943.4486072273</v>
       </c>
       <c r="R10" t="n">
-        <v>6649074.843764414</v>
+        <v>6649058.749137755</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1717,7 +1683,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1727,7 +1693,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1748,19 +1714,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Niina Sallmén, Karolin Ring</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57860499</v>
+        <v>17350448</v>
       </c>
       <c r="B11" t="n">
         <v>81972</v>
@@ -1798,25 +1764,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Storvreta, Upl</t>
+          <t>Himmelsvägen dellokal 1, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>649945.7457480269</v>
+        <v>649944.8784185861</v>
       </c>
       <c r="R11" t="n">
-        <v>6649039.283989211</v>
+        <v>6649048.27574623</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1840,7 +1802,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2016-03-28</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1850,17 +1812,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2016-03-28</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Känd lokal.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1888,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>57860432</v>
+        <v>17350488</v>
       </c>
       <c r="B12" t="n">
         <v>81972</v>
@@ -1923,28 +1880,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Storvreta, Upl</t>
+          <t>Himmelsvägen dellokal 3, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>649925.2249449204</v>
+        <v>649942.3780607461</v>
       </c>
       <c r="R12" t="n">
-        <v>6649074.558795155</v>
+        <v>6649072.747541919</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1968,7 +1921,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2016-03-28</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1978,17 +1931,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2016-04-26</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Känd lokal.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2016,10 +1964,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59279203</v>
+        <v>17349920</v>
       </c>
       <c r="B13" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2028,44 +1976,51 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>NV. Slöjmolnsvägen, Upl</t>
+          <t>Lyckebo gärde, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>649949.9336180199</v>
+        <v>649933.9945525791</v>
       </c>
       <c r="R13" t="n">
-        <v>6649010.366950603</v>
+        <v>6649068.896800726</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2089,7 +2044,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2016-05-01</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2099,7 +2054,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2016-05-01</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2107,36 +2062,32 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Gott om i orådet. Även vita, rosa och mörk rosa.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>64478328</v>
+        <v>52923805</v>
       </c>
       <c r="B14" t="n">
         <v>81972</v>
@@ -2171,28 +2122,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>649949.7375819354</v>
+        <v>649920.5552273702</v>
       </c>
       <c r="R14" t="n">
-        <v>6649039.947522494</v>
+        <v>6649065.843873934</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2216,7 +2163,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2014-04-17</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2226,7 +2173,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2014-04-17</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2236,7 +2183,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Utmed stigkanten.</t>
+          <t>1 ex 50m närmre Himmelsvägen 10</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2252,22 +2199,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>64478435</v>
+        <v>56793858</v>
       </c>
       <c r="B15" t="n">
-        <v>89940</v>
+        <v>90665</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2280,47 +2227,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3884</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>649916.2457141168</v>
+        <v>649920.5552273702</v>
       </c>
       <c r="R15" t="n">
-        <v>6649097.764493239</v>
+        <v>6649065.843873934</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2344,7 +2283,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2354,7 +2293,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2375,22 +2314,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>64509424</v>
+        <v>56793861</v>
       </c>
       <c r="B16" t="n">
-        <v>81972</v>
+        <v>90674</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2399,51 +2338,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1445</v>
+        <v>5964</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>649942.7366299739</v>
+        <v>649920.5552273702</v>
       </c>
       <c r="R16" t="n">
-        <v>6649039.161847287</v>
+        <v>6649065.843873934</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2467,27 +2398,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Förekomst känd sedan tidigare (Gillis Aronsson).</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2503,19 +2429,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Niklas Hjort</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Niklas Hjort</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>64975512</v>
+        <v>57784560</v>
       </c>
       <c r="B17" t="n">
         <v>81972</v>
@@ -2550,7 +2476,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2561,17 +2487,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>649926.7627923964</v>
+        <v>649941.9643785226</v>
       </c>
       <c r="R17" t="n">
-        <v>6649049.044952227</v>
+        <v>6649058.187396291</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2595,7 +2521,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2017-04-15</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2605,7 +2531,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2017-04-15</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2626,19 +2552,19 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Niina Sallmén, Karolin Ring</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>70780863</v>
+        <v>57784429</v>
       </c>
       <c r="B18" t="n">
         <v>81972</v>
@@ -2673,7 +2599,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2684,17 +2610,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>649914.049387534</v>
+        <v>649932.2461525318</v>
       </c>
       <c r="R18" t="n">
-        <v>6649077.615693624</v>
+        <v>6649074.843764414</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2718,22 +2644,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2018-04-21</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2018-04-21</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2749,22 +2675,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Owe Rosengren</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Owe Rosengren, Åke Berg, Tor Jonzon, Niklas Hjort</t>
+          <t>Niina Sallmén, Karolin Ring</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>75192494</v>
+        <v>57860499</v>
       </c>
       <c r="B19" t="n">
-        <v>90074</v>
+        <v>81972</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2773,30 +2699,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>1445</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2804,16 +2730,17 @@
           <t>fruktkroppar</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Himmelsvägen, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>649956.1979587255</v>
+        <v>649945.7457480269</v>
       </c>
       <c r="R19" t="n">
-        <v>6649153.045232232</v>
+        <v>6649039.283989211</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2840,7 +2767,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2016-03-28</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2850,7 +2777,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2016-03-28</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2858,39 +2785,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Känd lokal.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Granstubbe</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>75192464</v>
+        <v>57860432</v>
       </c>
       <c r="B20" t="n">
-        <v>89940</v>
+        <v>81972</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2899,30 +2827,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3884</v>
+        <v>1445</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2930,16 +2858,17 @@
           <t>fruktkroppar</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Himmelsvägen, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>649821.7994308156</v>
+        <v>649925.2249449204</v>
       </c>
       <c r="R20" t="n">
-        <v>6648974.074763619</v>
+        <v>6649074.558795155</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2966,7 +2895,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2016-03-28</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2976,7 +2905,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2016-04-26</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2984,39 +2913,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Känd lokal.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Död hasselstam</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>75192526</v>
+        <v>59279203</v>
       </c>
       <c r="B21" t="n">
-        <v>78503</v>
+        <v>98520</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3029,46 +2959,40 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6456</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>NV. Slöjmolnsvägen, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>650127.2537867933</v>
+        <v>649949.9336180199</v>
       </c>
       <c r="R21" t="n">
-        <v>6648305.867030086</v>
+        <v>6649010.366950603</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3092,7 +3016,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2016-05-01</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3102,7 +3026,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2016-05-01</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3112,7 +3036,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Drygt 20 bålar</t>
+          <t>Gott om i orådet. Även vita, rosa och mörk rosa.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3123,31 +3047,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75192512</v>
+        <v>64478328</v>
       </c>
       <c r="B22" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3156,41 +3075,51 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>650127.9644940065</v>
+        <v>649949.7375819354</v>
       </c>
       <c r="R22" t="n">
-        <v>6648646.968068492</v>
+        <v>6649039.947522494</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3214,7 +3143,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3224,7 +3153,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3232,34 +3161,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Utmed stigkanten.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>75192511</v>
+        <v>64478435</v>
       </c>
       <c r="B23" t="n">
-        <v>98520</v>
+        <v>89940</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3272,37 +3207,47 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>3884</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Quél.) Domański &amp; Orlicz</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>650063.1732949148</v>
+        <v>649916.2457141168</v>
       </c>
       <c r="R23" t="n">
-        <v>6648658.880891699</v>
+        <v>6649097.764493239</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3326,7 +3271,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3336,7 +3281,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3350,28 +3295,29 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>75192522</v>
+        <v>64509424</v>
       </c>
       <c r="B24" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3380,38 +3326,48 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>650422.0641780635</v>
+        <v>649942.7366299739</v>
       </c>
       <c r="R24" t="n">
-        <v>6648444.759876911</v>
+        <v>6649039.161847287</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3438,22 +3394,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Förekomst känd sedan tidigare (Gillis Aronsson).</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3462,28 +3423,29 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Niklas Hjort</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Niklas Hjort</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>75192467</v>
+        <v>64975512</v>
       </c>
       <c r="B25" t="n">
-        <v>89940</v>
+        <v>81972</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3492,30 +3454,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3884</v>
+        <v>1445</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3523,19 +3485,20 @@
           <t>fruktkroppar</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>649885.9861298962</v>
+        <v>649926.7627923964</v>
       </c>
       <c r="R25" t="n">
-        <v>6649113.085701096</v>
+        <v>6649049.044952227</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3559,7 +3522,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2017-04-15</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3569,7 +3532,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2017-04-15</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3583,33 +3546,29 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Död hasselstam</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>75192465</v>
+        <v>70780863</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>81972</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3618,41 +3577,51 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>1445</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>649850.8428664305</v>
+        <v>649914.049387534</v>
       </c>
       <c r="R26" t="n">
-        <v>6649025.904535145</v>
+        <v>6649077.615693624</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3676,27 +3645,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-04-21</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-04-21</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Gammalt gnagspår</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3705,33 +3669,29 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Död stående gran</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Owe Rosengren</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Owe Rosengren, Åke Berg, Tor Jonzon, Niklas Hjort</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>75192505</v>
+        <v>75192464</v>
       </c>
       <c r="B27" t="n">
-        <v>5113</v>
+        <v>89940</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3744,34 +3704,43 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100526</v>
+        <v>3884</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Quél.) Domański &amp; Orlicz</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>650044.7914601197</v>
+        <v>649821.7994308156</v>
       </c>
       <c r="R27" t="n">
-        <v>6648629.044237587</v>
+        <v>6648974.074763619</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3827,7 +3796,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Stående död gran, delvis avfallen bark</t>
+          <t>Död hasselstam</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3845,10 +3814,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>75192468</v>
+        <v>75192526</v>
       </c>
       <c r="B28" t="n">
-        <v>98520</v>
+        <v>78503</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3861,34 +3830,43 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>6456</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>649891.1980004046</v>
+        <v>650127.2537867933</v>
       </c>
       <c r="R28" t="n">
-        <v>6649120.819491702</v>
+        <v>6648305.867030086</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3915,7 +3893,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3925,7 +3903,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3933,6 +3911,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Drygt 20 bålar</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3941,6 +3924,11 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3957,7 +3945,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>75192485</v>
+        <v>75192512</v>
       </c>
       <c r="B29" t="n">
         <v>98520</v>
@@ -3997,10 +3985,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>650103.2198336929</v>
+        <v>650127.9644940065</v>
       </c>
       <c r="R29" t="n">
-        <v>6649404.234400269</v>
+        <v>6648646.968068492</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4027,7 +4015,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4037,7 +4025,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4069,7 +4057,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>75192513</v>
+        <v>75192511</v>
       </c>
       <c r="B30" t="n">
         <v>98520</v>
@@ -4109,10 +4097,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>650083.1497226417</v>
+        <v>650063.1732949148</v>
       </c>
       <c r="R30" t="n">
-        <v>6648525.775687917</v>
+        <v>6648658.880891699</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4181,7 +4169,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>75192481</v>
+        <v>75192522</v>
       </c>
       <c r="B31" t="n">
         <v>98520</v>
@@ -4221,10 +4209,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>649878.2358779873</v>
+        <v>650422.0641780635</v>
       </c>
       <c r="R31" t="n">
-        <v>6649403.121332495</v>
+        <v>6648444.759876911</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4251,7 +4239,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4261,7 +4249,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4293,10 +4281,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>75192495</v>
+        <v>75192467</v>
       </c>
       <c r="B32" t="n">
-        <v>98520</v>
+        <v>89940</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4309,34 +4297,43 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>3884</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Quél.) Domański &amp; Orlicz</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>649953.1883915251</v>
+        <v>649885.9861298962</v>
       </c>
       <c r="R32" t="n">
-        <v>6649115.813107357</v>
+        <v>6649113.085701096</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4389,6 +4386,11 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Död hasselstam</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4405,10 +4407,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>75192552</v>
+        <v>75192465</v>
       </c>
       <c r="B33" t="n">
-        <v>98520</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4421,21 +4423,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4445,10 +4447,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>649763.7853245505</v>
+        <v>649850.8428664305</v>
       </c>
       <c r="R33" t="n">
-        <v>6648880.948801518</v>
+        <v>6649025.904535145</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4475,7 +4477,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4485,7 +4487,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4493,6 +4495,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Gammalt gnagspår</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4501,6 +4508,11 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Död stående gran</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4517,10 +4529,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>75192508</v>
+        <v>75192505</v>
       </c>
       <c r="B34" t="n">
-        <v>78458</v>
+        <v>5113</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4533,21 +4545,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6457</v>
+        <v>100526</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4557,10 +4569,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>649818.0715104358</v>
+        <v>650044.7914601197</v>
       </c>
       <c r="R34" t="n">
-        <v>6648843.02828195</v>
+        <v>6648629.044237587</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4616,7 +4628,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Senvuxen asp i blockiga sluttning</t>
+          <t>Stående död gran, delvis avfallen bark</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4634,7 +4646,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>75192507</v>
+        <v>75192468</v>
       </c>
       <c r="B35" t="n">
         <v>98520</v>
@@ -4674,10 +4686,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>649921.7823371008</v>
+        <v>649891.1980004046</v>
       </c>
       <c r="R35" t="n">
-        <v>6648589.944827404</v>
+        <v>6649120.819491702</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4746,10 +4758,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>75192525</v>
+        <v>75192513</v>
       </c>
       <c r="B36" t="n">
-        <v>78458</v>
+        <v>98520</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4762,21 +4774,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6457</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4786,10 +4798,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>650127.2130946185</v>
+        <v>650083.1497226417</v>
       </c>
       <c r="R36" t="n">
-        <v>6648306.86857601</v>
+        <v>6648525.775687917</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4842,11 +4854,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Grov asp</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4863,7 +4870,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>75192490</v>
+        <v>75192495</v>
       </c>
       <c r="B37" t="n">
         <v>98520</v>
@@ -4903,10 +4910,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>649981.0160683265</v>
+        <v>649953.1883915251</v>
       </c>
       <c r="R37" t="n">
-        <v>6649222.253955047</v>
+        <v>6649115.813107357</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4975,7 +4982,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>75192482</v>
+        <v>75192552</v>
       </c>
       <c r="B38" t="n">
         <v>98520</v>
@@ -5015,10 +5022,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>650046.7971632882</v>
+        <v>649763.7853245505</v>
       </c>
       <c r="R38" t="n">
-        <v>6649433.031702678</v>
+        <v>6648880.948801518</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5045,7 +5052,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5055,7 +5062,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5087,10 +5094,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>75192469</v>
+        <v>75192508</v>
       </c>
       <c r="B39" t="n">
-        <v>89940</v>
+        <v>78458</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5103,43 +5110,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3884</v>
+        <v>6457</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Wallr.) Otálora et al.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>649894.1664193331</v>
+        <v>649818.0715104358</v>
       </c>
       <c r="R39" t="n">
-        <v>6649121.942917384</v>
+        <v>6648843.02828195</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5195,7 +5193,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>På två döda haselstammar</t>
+          <t>Senvuxen asp i blockiga sluttning</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5213,10 +5211,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>75192504</v>
+        <v>75192507</v>
       </c>
       <c r="B40" t="n">
-        <v>89403</v>
+        <v>98520</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5229,43 +5227,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1205</v>
+        <v>222498</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>649999.2097393508</v>
+        <v>649921.7823371008</v>
       </c>
       <c r="R40" t="n">
-        <v>6648699.918091764</v>
+        <v>6648589.944827404</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5318,11 +5307,6 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Asphögstubbe</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5339,10 +5323,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>75192499</v>
+        <v>75192525</v>
       </c>
       <c r="B41" t="n">
-        <v>98520</v>
+        <v>78458</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5355,21 +5339,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>6457</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5379,10 +5363,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>649854.7705817274</v>
+        <v>650127.2130946185</v>
       </c>
       <c r="R41" t="n">
-        <v>6648953.847286415</v>
+        <v>6648306.86857601</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5409,7 +5393,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5419,7 +5403,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5435,6 +5419,11 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Grov asp</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5451,10 +5440,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>75192493</v>
+        <v>75192469</v>
       </c>
       <c r="B42" t="n">
-        <v>98520</v>
+        <v>89940</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5467,34 +5456,43 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222498</v>
+        <v>3884</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(Quél.) Domański &amp; Orlicz</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>650043.9687843242</v>
+        <v>649894.1664193331</v>
       </c>
       <c r="R42" t="n">
-        <v>6649069.851636156</v>
+        <v>6649121.942917384</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5547,6 +5545,11 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>På två döda haselstammar</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5563,10 +5566,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>75192497</v>
+        <v>75192504</v>
       </c>
       <c r="B43" t="n">
-        <v>98520</v>
+        <v>89403</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5579,34 +5582,43 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>1205</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>649925.0143965085</v>
+        <v>649999.2097393508</v>
       </c>
       <c r="R43" t="n">
-        <v>6649054.991950995</v>
+        <v>6648699.918091764</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5659,6 +5671,11 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Asphögstubbe</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5675,10 +5692,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>75192503</v>
+        <v>75192499</v>
       </c>
       <c r="B44" t="n">
-        <v>78602</v>
+        <v>98520</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5691,21 +5708,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6463</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5715,10 +5732,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>649927.1071890047</v>
+        <v>649854.7705817274</v>
       </c>
       <c r="R44" t="n">
-        <v>6648731.096261145</v>
+        <v>6648953.847286415</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5771,11 +5788,6 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Asp med bohål och stamskada</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5792,7 +5804,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>75192483</v>
+        <v>75192493</v>
       </c>
       <c r="B45" t="n">
         <v>98520</v>
@@ -5832,10 +5844,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>650115.2000405383</v>
+        <v>650043.9687843242</v>
       </c>
       <c r="R45" t="n">
-        <v>6649430.796668836</v>
+        <v>6649069.851636156</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5904,10 +5916,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>75192523</v>
+        <v>75192497</v>
       </c>
       <c r="B46" t="n">
-        <v>78458</v>
+        <v>98520</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5920,21 +5932,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6457</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5944,10 +5956,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>650241.1379160339</v>
+        <v>649925.0143965085</v>
       </c>
       <c r="R46" t="n">
-        <v>6648384.230374061</v>
+        <v>6649054.991950995</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5974,7 +5986,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5984,7 +5996,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6000,11 +6012,6 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Aspbas</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -6021,10 +6028,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>75192516</v>
+        <v>75192503</v>
       </c>
       <c r="B47" t="n">
-        <v>98520</v>
+        <v>78602</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6037,21 +6044,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>6463</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6061,10 +6068,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>650346.8429899226</v>
+        <v>649927.1071890047</v>
       </c>
       <c r="R47" t="n">
-        <v>6648540.007507591</v>
+        <v>6648731.096261145</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6091,7 +6098,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -6101,7 +6108,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6117,6 +6124,11 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Asp med bohål och stamskada</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6133,10 +6145,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>75192551</v>
+        <v>75192523</v>
       </c>
       <c r="B48" t="n">
-        <v>98520</v>
+        <v>78458</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6149,21 +6161,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>6457</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6173,10 +6185,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>649727.906199328</v>
+        <v>650241.1379160339</v>
       </c>
       <c r="R48" t="n">
-        <v>6648811.789007539</v>
+        <v>6648384.230374061</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6203,7 +6215,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6213,7 +6225,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6229,6 +6241,11 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Aspbas</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6245,10 +6262,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>75192527</v>
+        <v>75192516</v>
       </c>
       <c r="B49" t="n">
-        <v>5113</v>
+        <v>98520</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6261,21 +6278,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100526</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6285,10 +6302,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>650027.0309406738</v>
+        <v>650346.8429899226</v>
       </c>
       <c r="R49" t="n">
-        <v>6648225.050972298</v>
+        <v>6648540.007507591</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6333,11 +6350,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Gnagspår</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -6346,11 +6358,6 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Granlåga, delvis avbarkad</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6367,10 +6374,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>75192500</v>
+        <v>75192551</v>
       </c>
       <c r="B50" t="n">
-        <v>90074</v>
+        <v>98520</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6383,43 +6390,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3298</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>649850.8598819324</v>
+        <v>649727.906199328</v>
       </c>
       <c r="R50" t="n">
-        <v>6648951.181105257</v>
+        <v>6648811.789007539</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6446,7 +6444,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6456,7 +6454,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6472,11 +6470,6 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>Död stående gran</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
@@ -6493,10 +6486,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>76544738</v>
+        <v>75192527</v>
       </c>
       <c r="B51" t="n">
-        <v>81972</v>
+        <v>5113</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6505,44 +6498,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1445</v>
+        <v>100526</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Gammal barrskog Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>649925.2184553014</v>
+        <v>650027.0309406738</v>
       </c>
       <c r="R51" t="n">
-        <v>6649087.095848812</v>
+        <v>6648225.050972298</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6566,7 +6556,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2019-03-23</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6576,7 +6566,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2019-03-23</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6584,35 +6574,44 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Gnagspår</t>
+        </is>
+      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Granlåga, delvis avbarkad</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Anders Haglund</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Anders Haglund</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>76621859</v>
+        <v>75192500</v>
       </c>
       <c r="B52" t="n">
-        <v>98520</v>
+        <v>90074</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6625,41 +6624,46 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222498</v>
+        <v>3298</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>649914.049387534</v>
+        <v>649850.8598819324</v>
       </c>
       <c r="R52" t="n">
-        <v>6649077.615693624</v>
+        <v>6648951.181105257</v>
       </c>
       <c r="S52" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6683,22 +6687,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6707,26 +6711,30 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Död stående gran</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Owe Rosengren</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76621800</v>
+        <v>76544738</v>
       </c>
       <c r="B53" t="n">
         <v>81972</v>
@@ -6759,31 +6767,23 @@
           <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Storvreta, Upl</t>
+          <t>Gammal barrskog Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>649925.2046247883</v>
+        <v>649925.2184553014</v>
       </c>
       <c r="R53" t="n">
-        <v>6649075.059463935</v>
+        <v>6649087.095848812</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6807,27 +6807,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2019-03-23</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2019-03-23</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:20</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Återfynd</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6840,30 +6835,25 @@
       <c r="AG53" t="b">
         <v>0</v>
       </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>äldre granskog</t>
-        </is>
-      </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Owe Rosengren</t>
+          <t>Anders Haglund</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
+          <t>Anders Haglund</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>76883834</v>
+        <v>76621859</v>
       </c>
       <c r="B54" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6872,46 +6862,45 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>649921.6192182691</v>
+        <v>649914.049387534</v>
       </c>
       <c r="R54" t="n">
-        <v>6649064.382571468</v>
+        <v>6649077.615693624</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6935,22 +6924,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6959,25 +6948,26 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Owe Rosengren</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>81674872</v>
+        <v>76621800</v>
       </c>
       <c r="B55" t="n">
         <v>81972</v>
@@ -7012,25 +7002,29 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Himmelsvägen, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>649933.6962494765</v>
+        <v>649925.2046247883</v>
       </c>
       <c r="R55" t="n">
-        <v>6649063.869745764</v>
+        <v>6649075.059463935</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7054,27 +7048,27 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Känd lokal</t>
+          <t>Återfynd</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7087,22 +7081,27 @@
       <c r="AG55" t="b">
         <v>0</v>
       </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>äldre granskog</t>
+        </is>
+      </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Owe Rosengren</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>81674864</v>
+        <v>76883834</v>
       </c>
       <c r="B56" t="n">
         <v>81972</v>
@@ -7137,25 +7136,23 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>649948.6532497486</v>
+        <v>649921.6192182691</v>
       </c>
       <c r="R56" t="n">
-        <v>6649041.909500772</v>
+        <v>6649064.382571468</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7179,27 +7176,22 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-04-07</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-04-07</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Känd lokal.</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7208,26 +7200,25 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16990265</v>
+        <v>81674872</v>
       </c>
       <c r="B57" t="n">
         <v>81972</v>
@@ -7265,24 +7256,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>649958.7512043342</v>
+        <v>649933.6962494765</v>
       </c>
       <c r="R57" t="n">
-        <v>6649028.277430258</v>
+        <v>6649063.869745764</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7306,7 +7295,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7316,7 +7305,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7326,7 +7315,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>2 ex. i barrförna mellan stora stenblock, äldre granskog.</t>
+          <t>Känd lokal</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7335,30 +7324,26 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>Blockrik, äldre granskog.</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>16990266</v>
+        <v>81674864</v>
       </c>
       <c r="B58" t="n">
         <v>81972</v>
@@ -7393,27 +7378,25 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>649909.617029862</v>
+        <v>649948.6532497486</v>
       </c>
       <c r="R58" t="n">
-        <v>6649075.429845632</v>
+        <v>6649041.909500772</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7437,7 +7420,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7447,7 +7430,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7457,7 +7440,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>14 ex. i barrförna och i vegetation av vägg- och husmossa samt blåbärsris, i blockrik äldre granskog. Upptäckt av Robert Weimer, Storvreta.</t>
+          <t>Känd lokal.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7466,33 +7449,29 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>Blockrik, äldre granskog.</t>
-        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>82551986</v>
+        <v>16990265</v>
       </c>
       <c r="B59" t="n">
-        <v>56540</v>
+        <v>81972</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7501,49 +7480,50 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>1445</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>NV. Slöjmolnsvägen, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>649949.9336180199</v>
+        <v>649958.7512043342</v>
       </c>
       <c r="R59" t="n">
-        <v>6649010.366950603</v>
+        <v>6649028.277430258</v>
       </c>
       <c r="S59" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7567,22 +7547,27 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>2 ex. i barrförna mellan stora stenblock, äldre granskog.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7593,26 +7578,31 @@
       </c>
       <c r="AG59" t="b">
         <v>0</v>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Blockrik, äldre granskog.</t>
+        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>87987105</v>
+        <v>16990266</v>
       </c>
       <c r="B60" t="n">
-        <v>57587</v>
+        <v>81972</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7621,49 +7611,50 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100141</v>
+        <v>1445</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>observerad</t>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>kärr, Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>650176.5398906262</v>
+        <v>649909.617029862</v>
       </c>
       <c r="R60" t="n">
-        <v>6648539.601830478</v>
+        <v>6649075.429845632</v>
       </c>
       <c r="S60" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7687,7 +7678,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2000-06-01</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7697,7 +7688,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7707,7 +7698,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>UT och min son har från det vi flyttade till Storvreta sett Större vattensalamander och Mindre vattensalamander i kärret vid Himmelsvägen/Storvreta.</t>
+          <t>14 ex. i barrförna och i vegetation av vägg- och husmossa samt blåbärsris, i blockrik äldre granskog. Upptäckt av Robert Weimer, Storvreta.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7719,30 +7710,30 @@
       <c r="AG60" t="b">
         <v>0</v>
       </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>Kärr med barrträd</t>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>Blockrik, äldre granskog.</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Elisabeth Fleischer</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Elisabeth Fleischer</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>88027608</v>
+        <v>82551986</v>
       </c>
       <c r="B61" t="n">
-        <v>57587</v>
+        <v>56540</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7751,66 +7742,49 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100141</v>
+        <v>103021</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>i vatten/simmande</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Kärret Himmelsvägen ,Storvreta, Storvreta, Upl</t>
+          <t>NV. Slöjmolnsvägen, Upl</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>649979.5920501237</v>
+        <v>649949.9336180199</v>
       </c>
       <c r="R61" t="n">
-        <v>6648539.626991335</v>
+        <v>6649010.366950603</v>
       </c>
       <c r="S61" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7834,27 +7808,22 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2000-06-10</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Förekommer varje år i kärret, intill Himmelsvägen i Storvreta</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7863,29 +7832,28 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Christoffer Fruh</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Christoffer Fruh</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>88025862</v>
+        <v>87987105</v>
       </c>
       <c r="B62" t="n">
-        <v>90008</v>
+        <v>57587</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7898,44 +7866,45 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6031</v>
+        <v>100141</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>(Laurenti, 1768)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Blomkålssvamp, Storvreta, Upl</t>
+          <t>kärr, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>650303.434126305</v>
+        <v>650176.5398906262</v>
       </c>
       <c r="R62" t="n">
-        <v>6648458.49077496</v>
+        <v>6648539.601830478</v>
       </c>
       <c r="S62" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7959,7 +7928,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2000-06-01</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7969,7 +7938,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7979,7 +7948,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Undertecknad har under flera år träffat på Blomkålssvamp/ Sparassis crispa i området!</t>
+          <t>UT och min son har från det vi flyttade till Storvreta sett Större vattensalamander och Mindre vattensalamander i kärret vid Himmelsvägen/Storvreta.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7988,9 +7957,13 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Kärr med barrträd</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
@@ -8007,10 +7980,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>88027752</v>
+        <v>88027608</v>
       </c>
       <c r="B63" t="n">
-        <v>57585</v>
+        <v>57587</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8023,26 +7996,26 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>208242</v>
+        <v>100141</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Laurenti, 1768)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -8051,13 +8024,21 @@
           <t>adult</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
           <t>i vatten/simmande</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Kärret Himmelsvägen ,Storvreta, Storvreta, Upl</t>
@@ -8094,7 +8075,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2000-05-31</t>
+          <t>2000-06-10</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -8104,7 +8085,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -8114,7 +8095,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Flitigt förekommande i kärret vid Himmelsvägen/ Storvreta</t>
+          <t>Förekommer varje år i kärret, intill Himmelsvägen i Storvreta</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8142,10 +8123,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>88159445</v>
+        <v>88025862</v>
       </c>
       <c r="B64" t="n">
-        <v>88896</v>
+        <v>90008</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8154,44 +8135,48 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>720</v>
+        <v>6031</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Fulleröskogen 2, Upl</t>
+          <t>Blomkålssvamp, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>650017.9102202069</v>
+        <v>650303.434126305</v>
       </c>
       <c r="R64" t="n">
-        <v>6648771.394573689</v>
+        <v>6648458.49077496</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8215,7 +8200,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -8225,7 +8210,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8235,7 +8220,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Häxring ca 2m</t>
+          <t>Undertecknad har under flera år träffat på Blomkålssvamp/ Sparassis crispa i området!</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8251,22 +8236,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Elisabeth Fleischer</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Elisabeth Fleischer</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>88159476</v>
+        <v>88027752</v>
       </c>
       <c r="B65" t="n">
-        <v>88896</v>
+        <v>57585</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8275,44 +8260,58 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>720</v>
+        <v>208242</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Fulleröskogen 2b, Upl</t>
+          <t>Kärret Himmelsvägen ,Storvreta, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>650007.0996209418</v>
+        <v>649979.5920501237</v>
       </c>
       <c r="R65" t="n">
-        <v>6648765.438713368</v>
+        <v>6648539.626991335</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8336,7 +8335,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2000-05-31</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8346,12 +8345,17 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Flitigt förekommande i kärret vid Himmelsvägen/ Storvreta</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8367,19 +8371,19 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Christoffer Fruh</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Christoffer Fruh</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>88159247</v>
+        <v>88159445</v>
       </c>
       <c r="B66" t="n">
         <v>88896</v>
@@ -8412,28 +8416,20 @@
           <t>(Pers.) Gray</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Fulleröskogen 1, Upl</t>
+          <t>Fulleröskogen 2, Upl</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>649981.6527977665</v>
+        <v>650017.9102202069</v>
       </c>
       <c r="R66" t="n">
-        <v>6648550.745085942</v>
+        <v>6648771.394573689</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8476,6 +8472,11 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Häxring ca 2m</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8503,10 +8504,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88416025</v>
+        <v>88159476</v>
       </c>
       <c r="B67" t="n">
-        <v>89392</v>
+        <v>88896</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8515,25 +8516,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1202</v>
+        <v>720</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8542,17 +8543,17 @@
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Fulleröskogen 2b, Upl</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>649978.6800961911</v>
+        <v>650007.0996209418</v>
       </c>
       <c r="R67" t="n">
-        <v>6648747.734162644</v>
+        <v>6648765.438713368</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8576,7 +8577,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8586,17 +8587,12 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>rikligt på granlåga</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8612,22 +8608,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88415103</v>
+        <v>88159247</v>
       </c>
       <c r="B68" t="n">
-        <v>90339</v>
+        <v>88896</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8636,44 +8632,52 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4787</v>
+        <v>720</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Fulleröskogen 1, Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>650102.405275509</v>
+        <v>649981.6527977665</v>
       </c>
       <c r="R68" t="n">
-        <v>6648608.312863322</v>
+        <v>6648550.745085942</v>
       </c>
       <c r="S68" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8697,7 +8701,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8707,17 +8711,12 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>ett par exemplar</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8733,22 +8732,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88414937</v>
+        <v>88416025</v>
       </c>
       <c r="B69" t="n">
-        <v>90008</v>
+        <v>89392</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8757,25 +8756,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6031</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8788,13 +8787,13 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>649998.4162223396</v>
+        <v>649978.6800961911</v>
       </c>
       <c r="R69" t="n">
-        <v>6648645.2170744</v>
+        <v>6648747.734162644</v>
       </c>
       <c r="S69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8834,6 +8833,11 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>rikligt på granlåga</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8861,10 +8865,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>88538479</v>
+        <v>88415103</v>
       </c>
       <c r="B70" t="n">
-        <v>90665</v>
+        <v>90339</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8877,28 +8881,24 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4366</v>
+        <v>4787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>Kühner &amp; Romagn.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -8908,13 +8908,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>649856.8486212983</v>
+        <v>650102.405275509</v>
       </c>
       <c r="R70" t="n">
-        <v>6649051.223038451</v>
+        <v>6648608.312863322</v>
       </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8948,12 +8948,17 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>ett par exemplar</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8981,10 +8986,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>88538630</v>
+        <v>88414937</v>
       </c>
       <c r="B71" t="n">
-        <v>90674</v>
+        <v>90008</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8997,21 +9002,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5964</v>
+        <v>6031</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9024,13 +9029,13 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>649990.7966992285</v>
+        <v>649998.4162223396</v>
       </c>
       <c r="R71" t="n">
-        <v>6648560.646001516</v>
+        <v>6648645.2170744</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -9054,7 +9059,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -9064,17 +9069,12 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Inom 20 meters radie finns flera ringar. arten är vanlig i alla grandominerade svackor av skogen.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9102,7 +9102,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>88538496</v>
+        <v>88538479</v>
       </c>
       <c r="B72" t="n">
         <v>90665</v>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -9149,10 +9149,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>649868.3806176679</v>
+        <v>649856.8486212983</v>
       </c>
       <c r="R72" t="n">
-        <v>6648977.468746475</v>
+        <v>6649051.223038451</v>
       </c>
       <c r="S72" t="n">
         <v>5</v>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>91487884</v>
+        <v>88538630</v>
       </c>
       <c r="B73" t="n">
-        <v>89392</v>
+        <v>90674</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9234,25 +9234,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9265,13 +9265,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>649998.4162223396</v>
+        <v>649990.7966992285</v>
       </c>
       <c r="R73" t="n">
-        <v>6648645.2170744</v>
+        <v>6648560.646001516</v>
       </c>
       <c r="S73" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -9305,12 +9305,17 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Inom 20 meters radie finns flera ringar. arten är vanlig i alla grandominerade svackor av skogen.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9338,10 +9343,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>92107012</v>
+        <v>88538496</v>
       </c>
       <c r="B74" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9354,49 +9359,44 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Cykelvägen, Slöjmolnsväegn, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>649991.8176454952</v>
+        <v>649868.3806176679</v>
       </c>
       <c r="R74" t="n">
-        <v>6649018.085362031</v>
+        <v>6648977.468746475</v>
       </c>
       <c r="S74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9420,22 +9420,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9444,28 +9444,29 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>96153766</v>
+        <v>91487884</v>
       </c>
       <c r="B75" t="n">
-        <v>85172</v>
+        <v>89392</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9474,42 +9475,44 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>442</v>
+        <v>1202</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bullspindling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Cortinarius corrosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>649874.0641054707</v>
+        <v>649998.4162223396</v>
       </c>
       <c r="R75" t="n">
-        <v>6649085.020045049</v>
+        <v>6648645.2170744</v>
       </c>
       <c r="S75" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9533,7 +9536,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -9543,7 +9546,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -9557,28 +9560,29 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>96187232</v>
+        <v>92107012</v>
       </c>
       <c r="B76" t="n">
-        <v>90674</v>
+        <v>98520</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9591,37 +9595,46 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Cykelvägen, Slöjmolnsväegn, Upl</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>650168.6425140236</v>
+        <v>649991.8176454952</v>
       </c>
       <c r="R76" t="n">
-        <v>6648560.848235592</v>
+        <v>6649018.085362031</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9648,27 +9661,22 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>förekommer rikligt i skogsområdet. stora exemplar och stora, täta ringar finns.</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9677,29 +9685,28 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
-      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>96187044</v>
+        <v>96153766</v>
       </c>
       <c r="B77" t="n">
-        <v>88921</v>
+        <v>85172</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9708,44 +9715,42 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5741</v>
+        <v>442</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Bullspindling</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Cortinarius corrosus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>650108.6112923591</v>
+        <v>649874.0641054707</v>
       </c>
       <c r="R77" t="n">
-        <v>6648739.97105081</v>
+        <v>6649085.020045049</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9769,7 +9774,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9779,7 +9784,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9793,29 +9798,28 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>96187129</v>
+        <v>96187232</v>
       </c>
       <c r="B78" t="n">
-        <v>90319</v>
+        <v>90674</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9828,21 +9832,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9855,10 +9859,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>650140.5394960955</v>
+        <v>650168.6425140236</v>
       </c>
       <c r="R78" t="n">
-        <v>6648584.784313248</v>
+        <v>6648560.848235592</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9905,7 +9909,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>vanlig i denna granskog</t>
+          <t>förekommer rikligt i skogsområdet. stora exemplar och stora, täta ringar finns.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9933,10 +9937,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>96214327</v>
+        <v>96187044</v>
       </c>
       <c r="B79" t="n">
-        <v>85301</v>
+        <v>88921</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9945,42 +9949,44 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3739</v>
+        <v>5741</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>649916.3037831903</v>
+        <v>650108.6112923591</v>
       </c>
       <c r="R79" t="n">
-        <v>6648984.929825474</v>
+        <v>6648739.97105081</v>
       </c>
       <c r="S79" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -10004,7 +10010,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -10014,7 +10020,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -10028,28 +10034,29 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>96308849</v>
+        <v>96187129</v>
       </c>
       <c r="B80" t="n">
-        <v>88921</v>
+        <v>90319</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -10062,21 +10069,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5741</v>
+        <v>4769</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -10085,14 +10092,14 @@
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Barrskog SV Himmelsvägen, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>650196.6441188324</v>
+        <v>650140.5394960955</v>
       </c>
       <c r="R80" t="n">
-        <v>6648539.415906242</v>
+        <v>6648584.784313248</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10119,7 +10126,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
@@ -10129,12 +10136,17 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>vanlig i denna granskog</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10162,10 +10174,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>96746403</v>
+        <v>96214327</v>
       </c>
       <c r="B81" t="n">
-        <v>89412</v>
+        <v>85301</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10178,40 +10190,38 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5442</v>
+        <v>3739</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>barrblandskog N vintergatsvägen, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>650057.0445075793</v>
+        <v>649916.3037831903</v>
       </c>
       <c r="R81" t="n">
-        <v>6649366.253520134</v>
+        <v>6648984.929825474</v>
       </c>
       <c r="S81" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -10235,7 +10245,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -10245,7 +10255,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -10259,29 +10269,28 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>97742393</v>
+        <v>96308849</v>
       </c>
       <c r="B82" t="n">
-        <v>90674</v>
+        <v>88921</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10294,21 +10303,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5964</v>
+        <v>5741</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10317,17 +10326,17 @@
       <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Storvreta SV, Upl</t>
+          <t>Barrskog SV Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>649873.6361577424</v>
+        <v>650196.6441188324</v>
       </c>
       <c r="R82" t="n">
-        <v>6649058.423540089</v>
+        <v>6648539.415906242</v>
       </c>
       <c r="S82" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10351,7 +10360,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -10361,7 +10370,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -10382,22 +10391,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>98639094</v>
+        <v>97742393</v>
       </c>
       <c r="B83" t="n">
-        <v>85254</v>
+        <v>90674</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10410,37 +10419,40 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>249228</v>
+        <v>5964</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Sverige, Upl</t>
+          <t>Storvreta SV, Upl</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>649853.8254448548</v>
+        <v>649873.6361577424</v>
       </c>
       <c r="R83" t="n">
-        <v>6649039.064480114</v>
+        <v>6649058.423540089</v>
       </c>
       <c r="S83" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10464,7 +10476,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10474,7 +10486,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10488,28 +10500,29 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
+      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Håkan Lernefalk</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Håkan Lernefalk</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>98639067</v>
+        <v>98639094</v>
       </c>
       <c r="B84" t="n">
-        <v>85301</v>
+        <v>85254</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10518,25 +10531,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3739</v>
+        <v>249228</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10546,10 +10559,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>649844.3151867579</v>
+        <v>649853.8254448548</v>
       </c>
       <c r="R84" t="n">
-        <v>6649001.066208675</v>
+        <v>6649039.064480114</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10618,10 +10631,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>103428243</v>
+        <v>98639067</v>
       </c>
       <c r="B85" t="n">
-        <v>90008</v>
+        <v>85301</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10630,45 +10643,38 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6031</v>
+        <v>3739</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>barrskog V Himmelsvägen, Upl</t>
+          <t>Sverige, Upl</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>650325.4054360926</v>
+        <v>649844.3151867579</v>
       </c>
       <c r="R85" t="n">
-        <v>6648424.775329884</v>
+        <v>6649001.066208675</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10695,7 +10701,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10705,7 +10711,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10713,40 +10719,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>vid foten av tall norr om stig.</t>
-        </is>
-      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
       <c r="AE85" t="b">
         <v>0</v>
       </c>
-      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85576877</v>
+        <v>103428243</v>
       </c>
       <c r="B86" t="n">
-        <v>57587</v>
+        <v>90008</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10759,21 +10759,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100141</v>
+        <v>6031</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10781,41 +10781,19 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>i vatten/simmande</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>slag-/vattenhåvning</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Salamanderkärret, Storvreta, Upl</t>
+          <t>barrskog V Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>649983.3425768835</v>
+        <v>650325.4054360926</v>
       </c>
       <c r="R86" t="n">
-        <v>6648694.760004896</v>
+        <v>6648424.775329884</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10842,27 +10820,27 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>Fint exemplar, hona, ca. 16 cm lång med svans. Svart och knottrig med orange/gul spräcklig mage.  Salamandrar har observerats i kärret sedan början av 90-talet. Den lilla skogen runt kärret är fin med mycket död ved. Det finns ett mindre kärr norr om fyndplatsen. Det finns ett dräneringsdike i den södra delen av vårmarken som inte lyckats dränera det. Kärren är igenväxta men flera vattenspeglar finns.</t>
+          <t>vid foten av tall norr om stig.</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10878,22 +10856,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Robert Harlin</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Robert Harlin</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>107841893</v>
+        <v>85576877</v>
       </c>
       <c r="B87" t="n">
-        <v>89392</v>
+        <v>57587</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10902,42 +10880,70 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1202</v>
+        <v>100141</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+          <t>(Laurenti, 1768)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>slag-/vattenhåvning</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Fullerömyren, Upl</t>
+          <t>Salamanderkärret, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>650121.3830034449</v>
+        <v>649983.3425768835</v>
       </c>
       <c r="R87" t="n">
-        <v>6648648.205299131</v>
+        <v>6648694.760004896</v>
       </c>
       <c r="S87" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10961,22 +10967,27 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Fint exemplar, hona, ca. 16 cm lång med svans. Svart och knottrig med orange/gul spräcklig mage.  Salamandrar har observerats i kärret sedan början av 90-talet. Den lilla skogen runt kärret är fin med mycket död ved. Det finns ett mindre kärr norr om fyndplatsen. Det finns ett dräneringsdike i den södra delen av vårmarken som inte lyckats dränera det. Kärren är igenväxta men flera vattenspeglar finns.</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10985,28 +10996,29 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
+      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Samuel Persson</t>
+          <t>Robert Harlin</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Samuel Persson</t>
+          <t>Robert Harlin</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>107839427</v>
+        <v>107841893</v>
       </c>
       <c r="B88" t="n">
-        <v>89940</v>
+        <v>89392</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -11015,39 +11027,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3884</v>
+        <v>1202</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Skarpan, Upl</t>
+          <t>Fullerömyren, Upl</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>649859.3531147883</v>
+        <v>650121.3830034449</v>
       </c>
       <c r="R88" t="n">
-        <v>6648977.102519212</v>
+        <v>6648648.205299131</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -11079,7 +11091,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -11089,7 +11101,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -11116,10 +11128,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>107841560</v>
+        <v>107839427</v>
       </c>
       <c r="B89" t="n">
-        <v>89392</v>
+        <v>89940</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -11128,39 +11140,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>3884</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Skarpan, Upl</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>650076.6066440826</v>
+        <v>649859.3531147883</v>
       </c>
       <c r="R89" t="n">
-        <v>6648711.587521225</v>
+        <v>6648977.102519212</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -11192,7 +11204,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -11202,7 +11214,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11229,10 +11241,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>107848142</v>
+        <v>107841560</v>
       </c>
       <c r="B90" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11241,41 +11253,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Skarpan, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>649895.5850182869</v>
+        <v>650076.6066440826</v>
       </c>
       <c r="R90" t="n">
-        <v>6648975.56346914</v>
+        <v>6648711.587521225</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11307,7 +11317,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -11317,7 +11327,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11326,7 +11336,6 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
-      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
@@ -11345,10 +11354,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>107839659</v>
+        <v>107848142</v>
       </c>
       <c r="B91" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11357,29 +11366,31 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Skarpan, Upl</t>
@@ -11421,7 +11432,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11431,7 +11442,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11440,6 +11451,7 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11458,10 +11470,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>107917446</v>
+        <v>107839659</v>
       </c>
       <c r="B92" t="n">
-        <v>89940</v>
+        <v>89392</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11470,44 +11482,42 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3884</v>
+        <v>1202</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Storvreta SV, Upl</t>
+          <t>Skarpan, Upl</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>649873.6361577424</v>
+        <v>649895.5850182869</v>
       </c>
       <c r="R92" t="n">
-        <v>6649058.423540089</v>
+        <v>6648975.56346914</v>
       </c>
       <c r="S92" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -11531,22 +11541,22 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2023-04-07</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2023-04-07</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11555,29 +11565,28 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
-      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
+          <t>Samuel Persson</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
+          <t>Samuel Persson</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>108670120</v>
+        <v>107917446</v>
       </c>
       <c r="B93" t="n">
-        <v>81972</v>
+        <v>89940</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11586,25 +11595,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1445</v>
+        <v>3884</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11613,14 +11622,14 @@
       <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Upl</t>
+          <t>Storvreta SV, Upl</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>649922.3442512245</v>
+        <v>649873.6361577424</v>
       </c>
       <c r="R93" t="n">
-        <v>6649058.895549387</v>
+        <v>6649058.423540089</v>
       </c>
       <c r="S93" t="n">
         <v>50</v>
@@ -11647,7 +11656,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -11657,7 +11666,7 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
@@ -11665,13 +11674,8 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Ej återfunnen på tidigare känd lokal. Dålig status. Nästan alla granar i skogen har dött av granbarkborreangrepp. Båda delpopulationerna eftersökta.</t>
-        </is>
-      </c>
       <c r="AD93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE93" t="b">
         <v>0</v>
@@ -11683,26 +11687,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Moa Pettersson</t>
+          <t>Håkan Lernefalk</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Moa Pettersson, Björn Larsson</t>
-        </is>
-      </c>
-      <c r="AY93" t="inlineStr">
-        <is>
-          <t>Uppföljning bombmurkla 2023</t>
-        </is>
-      </c>
+          <t>Håkan Lernefalk</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111056277</v>
+        <v>108670120</v>
       </c>
       <c r="B94" t="n">
-        <v>89405</v>
+        <v>81972</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11711,41 +11711,44 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1202</v>
+        <v>1445</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Ekebylund, Upl</t>
+          <t>Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>649920.2083246801</v>
+        <v>649922.3442512245</v>
       </c>
       <c r="R94" t="n">
-        <v>6648764.92085006</v>
+        <v>6649058.895549387</v>
       </c>
       <c r="S94" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11769,7 +11772,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11779,7 +11782,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11787,34 +11790,44 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Ej återfunnen på tidigare känd lokal. Dålig status. Nästan alla granar i skogen har dött av granbarkborreangrepp. Båda delpopulationerna eftersökta.</t>
+        </is>
+      </c>
       <c r="AD94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE94" t="b">
         <v>0</v>
       </c>
+      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Karolina Bruce</t>
+          <t>Moa Pettersson</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Erik Lagerin</t>
-        </is>
-      </c>
-      <c r="AY94" t="inlineStr"/>
+          <t>Moa Pettersson, Björn Larsson</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr">
+        <is>
+          <t>Uppföljning bombmurkla 2023</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111056282</v>
+        <v>111056277</v>
       </c>
       <c r="B95" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11827,34 +11840,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Vretalund, Upl</t>
+          <t>Ekebylund, Upl</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>649991.7194493939</v>
+        <v>649920.2083246801</v>
       </c>
       <c r="R95" t="n">
-        <v>6648636.920350144</v>
+        <v>6648764.92085006</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11923,7 +11936,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111056258</v>
+        <v>111056282</v>
       </c>
       <c r="B96" t="n">
         <v>56414</v>
@@ -11957,24 +11970,16 @@
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Ekeby, Upl</t>
+          <t>Vretalund, Upl</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>649873.346980502</v>
+        <v>649991.7194493939</v>
       </c>
       <c r="R96" t="n">
-        <v>6649313.162568272</v>
+        <v>6648636.920350144</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -12001,7 +12006,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
@@ -12011,17 +12016,12 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>gick ner Ö om obj</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Liam Martin</t>
+          <t>Erik Lagerin</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
@@ -12164,10 +12164,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111790914</v>
+        <v>111789261</v>
       </c>
       <c r="B98" t="n">
-        <v>90662</v>
+        <v>88915</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12176,42 +12176,44 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4363</v>
+        <v>5734</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>650131</v>
+        <v>650061</v>
       </c>
       <c r="R98" t="n">
-        <v>6648444</v>
+        <v>6648732</v>
       </c>
       <c r="S98" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -12240,7 +12242,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12250,7 +12252,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12277,10 +12279,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111789319</v>
+        <v>111790355</v>
       </c>
       <c r="B99" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12289,42 +12291,42 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>650042</v>
+        <v>650061</v>
       </c>
       <c r="R99" t="n">
-        <v>6648755</v>
+        <v>6648732</v>
       </c>
       <c r="S99" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -12353,7 +12355,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12363,12 +12365,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>Mitt i en stigkorsning</t>
+          <t>Stort mycel (6 m diameter) intill ett kärr under en granlåga.</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12379,11 +12381,6 @@
       </c>
       <c r="AG99" t="b">
         <v>0</v>
-      </c>
-      <c r="AH99" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
@@ -12400,10 +12397,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111789785</v>
+        <v>111790914</v>
       </c>
       <c r="B100" t="n">
-        <v>90187</v>
+        <v>90662</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12412,25 +12409,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2014</v>
+        <v>4363</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Koralltaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hericium coralloides</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Pers.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12441,13 +12438,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>649875</v>
+        <v>650131</v>
       </c>
       <c r="R100" t="n">
-        <v>6648703</v>
+        <v>6648444</v>
       </c>
       <c r="S100" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12476,7 +12473,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12486,12 +12483,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12518,10 +12510,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111790472</v>
+        <v>111789785</v>
       </c>
       <c r="B101" t="n">
-        <v>88909</v>
+        <v>90187</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12530,42 +12522,42 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>720</v>
+        <v>2014</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Koralltaggsvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hericium coralloides</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Scop.:Fr.) Pers.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>650061</v>
+        <v>649875</v>
       </c>
       <c r="R101" t="n">
-        <v>6648732</v>
+        <v>6648703</v>
       </c>
       <c r="S101" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12594,7 +12586,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12604,12 +12596,12 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Precis på/vid stig. Andra mycel åt båda håll.</t>
+          <t>I starkt rötad asplåga. 2 fruktkroppar. Ca 70 meter ifrån skogsbrynet till en elledningsgata. Svårt att få exakt position pga mobiltäckning.</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12636,10 +12628,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111791986</v>
+        <v>111789319</v>
       </c>
       <c r="B102" t="n">
-        <v>88982</v>
+        <v>88915</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12652,38 +12644,38 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>937</v>
+        <v>5734</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>650061</v>
+        <v>650042</v>
       </c>
       <c r="R102" t="n">
-        <v>6648732</v>
+        <v>6648755</v>
       </c>
       <c r="S102" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -12707,27 +12699,27 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
+          <t>Mitt i en stigkorsning</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12738,6 +12730,11 @@
       </c>
       <c r="AG102" t="b">
         <v>0</v>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
@@ -12867,10 +12864,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111789477</v>
+        <v>111791986</v>
       </c>
       <c r="B104" t="n">
-        <v>88909</v>
+        <v>88982</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12879,42 +12876,42 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>720</v>
+        <v>937</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Storvreta (Storvreta), Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>649983</v>
+        <v>650061</v>
       </c>
       <c r="R104" t="n">
-        <v>6648731</v>
+        <v>6648732</v>
       </c>
       <c r="S104" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12938,27 +12935,27 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
+          <t>Noterad ett år sent efter att ha problem med att rapportera! Två kraftigt rötade asplågor intill stig löpande N-&gt;S mellan Himmelsvägen och hästgården/huset efter skogen. Delar lågor med biskopsmössor.</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12985,7 +12982,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111789368</v>
+        <v>111789477</v>
       </c>
       <c r="B105" t="n">
         <v>88909</v>
@@ -13026,10 +13023,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>650001</v>
+        <v>649983</v>
       </c>
       <c r="R105" t="n">
-        <v>6648759</v>
+        <v>6648731</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -13076,7 +13073,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
+          <t>Mellan stenblock ca 50 m bort ifrån föregående rapporterade mycel. Bland ett myller av granlågor.</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -13087,11 +13084,6 @@
       </c>
       <c r="AG105" t="b">
         <v>0</v>
-      </c>
-      <c r="AH105" t="inlineStr">
-        <is>
-          <t>Blåbärsgranskog</t>
-        </is>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
@@ -13108,10 +13100,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111789261</v>
+        <v>111789368</v>
       </c>
       <c r="B106" t="n">
-        <v>88915</v>
+        <v>88909</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -13120,44 +13112,42 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5734</v>
+        <v>720</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Storvreta (Storvreta), Upl</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>650061</v>
+        <v>650001</v>
       </c>
       <c r="R106" t="n">
-        <v>6648732</v>
+        <v>6648759</v>
       </c>
       <c r="S106" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -13186,7 +13176,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -13196,7 +13186,12 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>I ett ca 5 meter långt stråk med många fruktkroppar.</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -13207,6 +13202,11 @@
       </c>
       <c r="AG106" t="b">
         <v>0</v>
+      </c>
+      <c r="AH106" t="inlineStr">
+        <is>
+          <t>Blåbärsgranskog</t>
+        </is>
       </c>
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
@@ -13226,7 +13226,7 @@
         <v>111852345</v>
       </c>
       <c r="B107" t="n">
-        <v>90710</v>
+        <v>90844</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>111961388</v>
       </c>
       <c r="B108" t="n">
-        <v>90021</v>
+        <v>90155</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>111984708</v>
       </c>
       <c r="B109" t="n">
-        <v>88909</v>
+        <v>89043</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>111984394</v>
       </c>
       <c r="B110" t="n">
-        <v>90662</v>
+        <v>90796</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>112063812</v>
       </c>
       <c r="B111" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13803,10 +13803,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112139297</v>
+        <v>112139372</v>
       </c>
       <c r="B112" t="n">
-        <v>88909</v>
+        <v>90812</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13815,25 +13815,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>720</v>
+        <v>4366</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13846,10 +13846,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>650012</v>
+        <v>649886</v>
       </c>
       <c r="R112" t="n">
-        <v>6648763</v>
+        <v>6648971</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13882,6 +13882,11 @@
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC112" t="inlineStr">
+        <is>
+          <t>På/intill stigen</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -13909,10 +13914,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112139372</v>
+        <v>112139297</v>
       </c>
       <c r="B113" t="n">
-        <v>90678</v>
+        <v>89043</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13921,25 +13926,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4366</v>
+        <v>720</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13952,10 +13957,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>649886</v>
+        <v>650012</v>
       </c>
       <c r="R113" t="n">
-        <v>6648971</v>
+        <v>6648763</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13988,11 +13993,6 @@
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>På/intill stigen</t>
         </is>
       </c>
       <c r="AD113" t="b">

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -13344,7 +13344,7 @@
         <v>111961388</v>
       </c>
       <c r="B108" t="n">
-        <v>90155</v>
+        <v>90169</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>111984708</v>
       </c>
       <c r="B109" t="n">
-        <v>89043</v>
+        <v>89057</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>111984394</v>
       </c>
       <c r="B110" t="n">
-        <v>90796</v>
+        <v>90810</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>112063812</v>
       </c>
       <c r="B111" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>112139372</v>
       </c>
       <c r="B112" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>112139297</v>
       </c>
       <c r="B113" t="n">
-        <v>89043</v>
+        <v>89057</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>

--- a/artfynd/A 31276-2020.xlsx
+++ b/artfynd/A 31276-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75192485</v>
+        <v>17350482</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Himmelsvägen dellokal 2, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>650103.2198336929</v>
+        <v>649943.4486072273</v>
       </c>
       <c r="R2" t="n">
-        <v>6649404.234400269</v>
+        <v>6649058.749137755</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +756,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +766,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,28 +780,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75192481</v>
+        <v>17350448</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +811,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Himmelsvägen dellokal 1, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>649878.2358779873</v>
+        <v>649944.8784185861</v>
       </c>
       <c r="R3" t="n">
-        <v>6649403.121332495</v>
+        <v>6649048.27574623</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -886,28 +899,29 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75192482</v>
+        <v>17350488</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +930,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Himmelsvägen dellokal 3, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>650046.7971632882</v>
+        <v>649942.3780607461</v>
       </c>
       <c r="R4" t="n">
-        <v>6649433.031702678</v>
+        <v>6649072.747541919</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,7 +994,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +1004,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-18</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -998,28 +1018,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75192483</v>
+        <v>17349920</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,38 +1049,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Lyckebo gärde, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>650115.2000405383</v>
+        <v>649933.9945525791</v>
       </c>
       <c r="R5" t="n">
-        <v>6649430.796668836</v>
+        <v>6649068.896800726</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-04-19</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1110,28 +1141,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96746403</v>
+        <v>52923805</v>
       </c>
       <c r="B6" t="n">
-        <v>89412</v>
+        <v>81972</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,44 +1172,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>1445</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>barrblandskog N vintergatsvägen, Upl</t>
+          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>650057.0445075793</v>
+        <v>649920.5552273702</v>
       </c>
       <c r="R6" t="n">
-        <v>6649366.253520134</v>
+        <v>6649065.843873934</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1201,7 +1236,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2014-04-17</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1211,12 +1246,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2014-04-17</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1 ex 50m närmre Himmelsvägen 10</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1232,22 +1272,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111056258</v>
+        <v>56793858</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>90665</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,49 +1296,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Ekeby, Upl</t>
+          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>649873.346980502</v>
+        <v>649920.5552273702</v>
       </c>
       <c r="R7" t="n">
-        <v>6649313.162568272</v>
+        <v>6649065.843873934</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1322,7 +1356,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1332,7 +1366,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1340,39 +1374,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>gick ner Ö om obj</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Karolina Bruce</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Liam Martin</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>75192494</v>
+        <v>56793861</v>
       </c>
       <c r="B8" t="n">
-        <v>90074</v>
+        <v>90674</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1385,46 +1415,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>649956.1979587255</v>
+        <v>649920.5552273702</v>
       </c>
       <c r="R8" t="n">
-        <v>6649153.045232232</v>
+        <v>6649065.843873934</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1448,7 +1471,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1458,7 +1481,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2015-10-03</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1472,33 +1495,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Granstubbe</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>75192490</v>
+        <v>57784560</v>
       </c>
       <c r="B9" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,41 +1526,51 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>649981.0160683265</v>
+        <v>649941.9643785226</v>
       </c>
       <c r="R9" t="n">
-        <v>6649222.253955047</v>
+        <v>6649058.187396291</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1565,7 +1594,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1575,7 +1604,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1589,25 +1618,26 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Niina Sallmén, Karolin Ring</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17350482</v>
+        <v>57784429</v>
       </c>
       <c r="B10" t="n">
         <v>81972</v>
@@ -1642,24 +1672,28 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Himmelsvägen dellokal 2, Upl</t>
+          <t>Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>649943.4486072273</v>
+        <v>649932.2461525318</v>
       </c>
       <c r="R10" t="n">
-        <v>6649058.749137755</v>
+        <v>6649074.843764414</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1683,7 +1717,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1693,7 +1727,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2016-03-25</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1714,19 +1748,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Niina Sallmén, Karolin Ring</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17350448</v>
+        <v>57860499</v>
       </c>
       <c r="B11" t="n">
         <v>81972</v>
@@ -1764,21 +1798,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Himmelsvägen dellokal 1, Upl</t>
+          <t>Himmelsvägen, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>649944.8784185861</v>
+        <v>649945.7457480269</v>
       </c>
       <c r="R11" t="n">
-        <v>6649048.27574623</v>
+        <v>6649039.283989211</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1802,7 +1840,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2016-03-28</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1812,12 +1850,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2016-03-28</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Känd lokal.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1845,7 +1888,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17350488</v>
+        <v>57860432</v>
       </c>
       <c r="B12" t="n">
         <v>81972</v>
@@ -1880,24 +1923,28 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Himmelsvägen dellokal 3, Upl</t>
+          <t>Himmelsvägen, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>649942.3780607461</v>
+        <v>649925.2249449204</v>
       </c>
       <c r="R12" t="n">
-        <v>6649072.747541919</v>
+        <v>6649074.558795155</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1921,7 +1968,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2016-03-28</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1931,12 +1978,17 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2015-04-18</t>
+          <t>2016-04-26</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Känd lokal.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1964,10 +2016,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17349920</v>
+        <v>59279203</v>
       </c>
       <c r="B13" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1976,51 +2028,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Lyckebo gärde, Upl</t>
+          <t>NV. Slöjmolnsvägen, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>649933.9945525791</v>
+        <v>649949.9336180199</v>
       </c>
       <c r="R13" t="n">
-        <v>6649068.896800726</v>
+        <v>6649010.366950603</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2044,7 +2089,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2016-05-01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2054,7 +2099,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2015-04-19</t>
+          <t>2016-05-01</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2062,32 +2107,36 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Gott om i orådet. Även vita, rosa och mörk rosa.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>52923805</v>
+        <v>64478328</v>
       </c>
       <c r="B14" t="n">
         <v>81972</v>
@@ -2122,24 +2171,28 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>649920.5552273702</v>
+        <v>649949.7375819354</v>
       </c>
       <c r="R14" t="n">
-        <v>6649065.843873934</v>
+        <v>6649039.947522494</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2163,7 +2216,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2014-04-17</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2173,7 +2226,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2014-04-17</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2183,7 +2236,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>1 ex 50m närmre Himmelsvägen 10</t>
+          <t>Utmed stigkanten.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2199,22 +2252,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56793858</v>
+        <v>64478435</v>
       </c>
       <c r="B15" t="n">
-        <v>90665</v>
+        <v>89940</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2227,39 +2280,47 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>3884</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Quél.) Domański &amp; Orlicz</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>649920.5552273702</v>
+        <v>649916.2457141168</v>
       </c>
       <c r="R15" t="n">
-        <v>6649065.843873934</v>
+        <v>6649097.764493239</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2283,7 +2344,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2293,7 +2354,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2017-03-18</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2314,22 +2375,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>56793861</v>
+        <v>64509424</v>
       </c>
       <c r="B16" t="n">
-        <v>90674</v>
+        <v>81972</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2338,43 +2399,51 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5964</v>
+        <v>1445</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Storvreta, 130m NNV. Himmelsvägen 10, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>649920.5552273702</v>
+        <v>649942.7366299739</v>
       </c>
       <c r="R16" t="n">
-        <v>6649065.843873934</v>
+        <v>6649039.161847287</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2398,22 +2467,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2015-10-03</t>
+          <t>2017-03-19</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Förekomst känd sedan tidigare (Gillis Aronsson).</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2429,19 +2503,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Niklas Hjort</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Niklas Hjort</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>57784560</v>
+        <v>64975512</v>
       </c>
       <c r="B17" t="n">
         <v>81972</v>
@@ -2476,7 +2550,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2487,17 +2561,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>649941.9643785226</v>
+        <v>649926.7627923964</v>
       </c>
       <c r="R17" t="n">
-        <v>6649058.187396291</v>
+        <v>6649049.044952227</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2521,7 +2595,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2017-04-15</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2531,7 +2605,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2017-04-15</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2552,19 +2626,19 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Niina Sallmén, Karolin Ring</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>57784429</v>
+        <v>70780863</v>
       </c>
       <c r="B18" t="n">
         <v>81972</v>
@@ -2599,7 +2673,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2610,17 +2684,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>649932.2461525318</v>
+        <v>649914.049387534</v>
       </c>
       <c r="R18" t="n">
-        <v>6649074.843764414</v>
+        <v>6649077.615693624</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2644,22 +2718,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2018-04-21</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2016-03-25</t>
+          <t>2018-04-21</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2675,22 +2749,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Owe Rosengren</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Niina Sallmén, Karolin Ring</t>
+          <t>Owe Rosengren, Åke Berg, Tor Jonzon, Niklas Hjort</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>57860499</v>
+        <v>75192494</v>
       </c>
       <c r="B19" t="n">
-        <v>81972</v>
+        <v>90074</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2699,30 +2773,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1445</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2730,17 +2804,16 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>649945.7457480269</v>
+        <v>649956.1979587255</v>
       </c>
       <c r="R19" t="n">
-        <v>6649039.283989211</v>
+        <v>6649153.045232232</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2767,7 +2840,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2016-03-28</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2777,7 +2850,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2016-03-28</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2785,40 +2858,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Känd lokal.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Granstubbe</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>57860432</v>
+        <v>75192464</v>
       </c>
       <c r="B20" t="n">
-        <v>81972</v>
+        <v>89940</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2827,30 +2899,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1445</v>
+        <v>3884</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2858,17 +2930,16 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>649925.2249449204</v>
+        <v>649821.7994308156</v>
       </c>
       <c r="R20" t="n">
-        <v>6649074.558795155</v>
+        <v>6648974.074763619</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2895,7 +2966,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2016-03-28</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2905,7 +2976,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2016-04-26</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2913,40 +2984,39 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Känd lokal.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Död hasselstam</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>59279203</v>
+        <v>75192526</v>
       </c>
       <c r="B21" t="n">
-        <v>98520</v>
+        <v>78503</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2959,40 +3029,46 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>6456</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>NV. Slöjmolnsvägen, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>649949.9336180199</v>
+        <v>650127.2537867933</v>
       </c>
       <c r="R21" t="n">
-        <v>6649010.366950603</v>
+        <v>6648305.867030086</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3016,7 +3092,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2016-05-01</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3026,7 +3102,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2016-05-01</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3036,7 +3112,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Gott om i orådet. Även vita, rosa och mörk rosa.</t>
+          <t>Drygt 20 bålar</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3047,26 +3123,31 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>64478328</v>
+        <v>75192512</v>
       </c>
       <c r="B22" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3075,51 +3156,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>649949.7375819354</v>
+        <v>650127.9644940065</v>
       </c>
       <c r="R22" t="n">
-        <v>6649039.947522494</v>
+        <v>6648646.968068492</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3143,7 +3214,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3153,7 +3224,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3161,40 +3232,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Utmed stigkanten.</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>64478435</v>
+        <v>75192511</v>
       </c>
       <c r="B23" t="n">
-        <v>89940</v>
+        <v>98520</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3207,47 +3272,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3884</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>649916.2457141168</v>
+        <v>650063.1732949148</v>
       </c>
       <c r="R23" t="n">
-        <v>6649097.764493239</v>
+        <v>6648658.880891699</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3271,7 +3326,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3281,7 +3336,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2017-03-18</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3295,29 +3350,28 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>64509424</v>
+        <v>75192522</v>
       </c>
       <c r="B24" t="n">
-        <v>81972</v>
+        <v>98520</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3326,48 +3380,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1445</v>
+        <v>222498</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>649942.7366299739</v>
+        <v>650422.0641780635</v>
       </c>
       <c r="R24" t="n">
-        <v>6649039.161847287</v>
+        <v>6648444.759876911</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3394,27 +3438,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2017-03-19</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Förekomst känd sedan tidigare (Gillis Aronsson).</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3423,29 +3462,28 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Niklas Hjort</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Niklas Hjort</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>64975512</v>
+        <v>75192467</v>
       </c>
       <c r="B25" t="n">
-        <v>81972</v>
+        <v>89940</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3454,30 +3492,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1445</v>
+        <v>3884</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3485,20 +3523,19 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>649926.7627923964</v>
+        <v>649885.9861298962</v>
       </c>
       <c r="R25" t="n">
-        <v>6649049.044952227</v>
+        <v>6649113.085701096</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3522,7 +3559,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2017-04-15</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3532,7 +3569,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2017-04-15</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3546,29 +3583,33 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Död hasselstam</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>70780863</v>
+        <v>75192465</v>
       </c>
       <c r="B26" t="n">
-        <v>81972</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3577,51 +3618,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1445</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>649914.049387534</v>
+        <v>649850.8428664305</v>
       </c>
       <c r="R26" t="n">
-        <v>6649077.615693624</v>
+        <v>6649025.904535145</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3645,22 +3676,27 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018-04-21</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2018-04-21</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Gammalt gnagspår</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3669,29 +3705,33 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Död stående gran</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Owe Rosengren</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Owe Rosengren, Åke Berg, Tor Jonzon, Niklas Hjort</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>75192464</v>
+        <v>75192505</v>
       </c>
       <c r="B27" t="n">
-        <v>89940</v>
+        <v>5113</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3704,43 +3744,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3884</v>
+        <v>100526</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>649821.7994308156</v>
+        <v>650044.7914601197</v>
       </c>
       <c r="R27" t="n">
-        <v>6648974.074763619</v>
+        <v>6648629.044237587</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3796,7 +3827,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Död hasselstam</t>
+          <t>Stående död gran, delvis avfallen bark</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3814,10 +3845,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>75192526</v>
+        <v>75192468</v>
       </c>
       <c r="B28" t="n">
-        <v>78503</v>
+        <v>98520</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3830,43 +3861,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6456</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>650127.2537867933</v>
+        <v>649891.1980004046</v>
       </c>
       <c r="R28" t="n">
-        <v>6648305.867030086</v>
+        <v>6649120.819491702</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3893,7 +3915,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3903,7 +3925,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3911,11 +3933,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Drygt 20 bålar</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3924,11 +3941,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3945,7 +3957,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>75192512</v>
+        <v>75192485</v>
       </c>
       <c r="B29" t="n">
         <v>98520</v>
@@ -3985,10 +3997,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>650127.9644940065</v>
+        <v>650103.2198336929</v>
       </c>
       <c r="R29" t="n">
-        <v>6648646.968068492</v>
+        <v>6649404.234400269</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4015,7 +4027,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4025,7 +4037,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4057,7 +4069,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>75192511</v>
+        <v>75192513</v>
       </c>
       <c r="B30" t="n">
         <v>98520</v>
@@ -4097,10 +4109,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>650063.1732949148</v>
+        <v>650083.1497226417</v>
       </c>
       <c r="R30" t="n">
-        <v>6648658.880891699</v>
+        <v>6648525.775687917</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4169,7 +4181,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>75192522</v>
+        <v>75192481</v>
       </c>
       <c r="B31" t="n">
         <v>98520</v>
@@ -4209,10 +4221,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>650422.0641780635</v>
+        <v>649878.2358779873</v>
       </c>
       <c r="R31" t="n">
-        <v>6648444.759876911</v>
+        <v>6649403.121332495</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4239,7 +4251,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4249,7 +4261,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4281,10 +4293,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>75192467</v>
+        <v>75192495</v>
       </c>
       <c r="B32" t="n">
-        <v>89940</v>
+        <v>98520</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4297,43 +4309,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3884</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>649885.9861298962</v>
+        <v>649953.1883915251</v>
       </c>
       <c r="R32" t="n">
-        <v>6649113.085701096</v>
+        <v>6649115.813107357</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4386,11 +4389,6 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Död hasselstam</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4407,10 +4405,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>75192465</v>
+        <v>75192552</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>98520</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4423,21 +4421,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4447,10 +4445,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>649850.8428664305</v>
+        <v>649763.7853245505</v>
       </c>
       <c r="R33" t="n">
-        <v>6649025.904535145</v>
+        <v>6648880.948801518</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4477,7 +4475,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4487,7 +4485,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4495,11 +4493,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Gammalt gnagspår</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4508,11 +4501,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Död stående gran</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4529,10 +4517,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>75192505</v>
+        <v>75192508</v>
       </c>
       <c r="B34" t="n">
-        <v>5113</v>
+        <v>78458</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4545,21 +4533,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100526</v>
+        <v>6457</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4569,10 +4557,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>650044.7914601197</v>
+        <v>649818.0715104358</v>
       </c>
       <c r="R34" t="n">
-        <v>6648629.044237587</v>
+        <v>6648843.02828195</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4628,7 +4616,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Stående död gran, delvis avfallen bark</t>
+          <t>Senvuxen asp i blockiga sluttning</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4646,7 +4634,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>75192468</v>
+        <v>75192507</v>
       </c>
       <c r="B35" t="n">
         <v>98520</v>
@@ -4686,10 +4674,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>649891.1980004046</v>
+        <v>649921.7823371008</v>
       </c>
       <c r="R35" t="n">
-        <v>6649120.819491702</v>
+        <v>6648589.944827404</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4758,10 +4746,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>75192513</v>
+        <v>75192525</v>
       </c>
       <c r="B36" t="n">
-        <v>98520</v>
+        <v>78458</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4774,21 +4762,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>6457</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4798,10 +4786,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>650083.1497226417</v>
+        <v>650127.2130946185</v>
       </c>
       <c r="R36" t="n">
-        <v>6648525.775687917</v>
+        <v>6648306.86857601</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4854,6 +4842,11 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Grov asp</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4870,7 +4863,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>75192495</v>
+        <v>75192490</v>
       </c>
       <c r="B37" t="n">
         <v>98520</v>
@@ -4910,10 +4903,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>649953.1883915251</v>
+        <v>649981.0160683265</v>
       </c>
       <c r="R37" t="n">
-        <v>6649115.813107357</v>
+        <v>6649222.253955047</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4982,7 +4975,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>75192552</v>
+        <v>75192482</v>
       </c>
       <c r="B38" t="n">
         <v>98520</v>
@@ -5022,10 +5015,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>649763.7853245505</v>
+        <v>650046.7971632882</v>
       </c>
       <c r="R38" t="n">
-        <v>6648880.948801518</v>
+        <v>6649433.031702678</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5052,7 +5045,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5062,7 +5055,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5094,10 +5087,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>75192508</v>
+        <v>75192469</v>
       </c>
       <c r="B39" t="n">
-        <v>78458</v>
+        <v>89940</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5110,34 +5103,43 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6457</v>
+        <v>3884</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Quél.) Domański &amp; Orlicz</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>649818.0715104358</v>
+        <v>649894.1664193331</v>
       </c>
       <c r="R39" t="n">
-        <v>6648843.02828195</v>
+        <v>6649121.942917384</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5193,7 +5195,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Senvuxen asp i blockiga sluttning</t>
+          <t>På två döda haselstammar</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5211,10 +5213,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>75192507</v>
+        <v>75192504</v>
       </c>
       <c r="B40" t="n">
-        <v>98520</v>
+        <v>89403</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5227,34 +5229,43 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222498</v>
+        <v>1205</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>649921.7823371008</v>
+        <v>649999.2097393508</v>
       </c>
       <c r="R40" t="n">
-        <v>6648589.944827404</v>
+        <v>6648699.918091764</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5307,6 +5318,11 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Asphögstubbe</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5323,10 +5339,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>75192525</v>
+        <v>75192499</v>
       </c>
       <c r="B41" t="n">
-        <v>78458</v>
+        <v>98520</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5339,21 +5355,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6457</v>
+        <v>222498</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5363,10 +5379,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>650127.2130946185</v>
+        <v>649854.7705817274</v>
       </c>
       <c r="R41" t="n">
-        <v>6648306.86857601</v>
+        <v>6648953.847286415</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5393,7 +5409,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5403,7 +5419,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5419,11 +5435,6 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Grov asp</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5440,10 +5451,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>75192469</v>
+        <v>75192493</v>
       </c>
       <c r="B42" t="n">
-        <v>89940</v>
+        <v>98520</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5456,43 +5467,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3884</v>
+        <v>222498</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>649894.1664193331</v>
+        <v>650043.9687843242</v>
       </c>
       <c r="R42" t="n">
-        <v>6649121.942917384</v>
+        <v>6649069.851636156</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5545,11 +5547,6 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>På två döda haselstammar</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5566,10 +5563,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>75192504</v>
+        <v>75192497</v>
       </c>
       <c r="B43" t="n">
-        <v>89403</v>
+        <v>98520</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5582,43 +5579,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1205</v>
+        <v>222498</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>649999.2097393508</v>
+        <v>649925.0143965085</v>
       </c>
       <c r="R43" t="n">
-        <v>6648699.918091764</v>
+        <v>6649054.991950995</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5671,11 +5659,6 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Asphögstubbe</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5692,10 +5675,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>75192499</v>
+        <v>75192503</v>
       </c>
       <c r="B44" t="n">
-        <v>98520</v>
+        <v>78602</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5708,21 +5691,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>6463</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5732,10 +5715,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>649854.7705817274</v>
+        <v>649927.1071890047</v>
       </c>
       <c r="R44" t="n">
-        <v>6648953.847286415</v>
+        <v>6648731.096261145</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5788,6 +5771,11 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Asp med bohål och stamskada</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5804,7 +5792,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>75192493</v>
+        <v>75192483</v>
       </c>
       <c r="B45" t="n">
         <v>98520</v>
@@ -5844,10 +5832,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>650043.9687843242</v>
+        <v>650115.2000405383</v>
       </c>
       <c r="R45" t="n">
-        <v>6649069.851636156</v>
+        <v>6649430.796668836</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5916,10 +5904,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>75192497</v>
+        <v>75192523</v>
       </c>
       <c r="B46" t="n">
-        <v>98520</v>
+        <v>78458</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5932,21 +5920,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>6457</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dvärgtufs</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Scytinium teretiusculum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Wallr.) Otálora et al.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5956,10 +5944,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>649925.0143965085</v>
+        <v>650241.1379160339</v>
       </c>
       <c r="R46" t="n">
-        <v>6649054.991950995</v>
+        <v>6648384.230374061</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5986,7 +5974,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5996,7 +5984,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -6012,6 +6000,11 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Aspbas</t>
+        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -6028,10 +6021,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>75192503</v>
+        <v>75192516</v>
       </c>
       <c r="B47" t="n">
-        <v>78602</v>
+        <v>98520</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6044,21 +6037,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6463</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6068,10 +6061,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>649927.1071890047</v>
+        <v>650346.8429899226</v>
       </c>
       <c r="R47" t="n">
-        <v>6648731.096261145</v>
+        <v>6648540.007507591</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6098,7 +6091,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -6108,7 +6101,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6124,11 +6117,6 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Asp med bohål och stamskada</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6145,10 +6133,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>75192523</v>
+        <v>75192551</v>
       </c>
       <c r="B48" t="n">
-        <v>78458</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6161,21 +6149,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6457</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dvärgtufs</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Scytinium teretiusculum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Wallr.) Otálora et al.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6185,10 +6173,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>650241.1379160339</v>
+        <v>649727.906199328</v>
       </c>
       <c r="R48" t="n">
-        <v>6648384.230374061</v>
+        <v>6648811.789007539</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6215,7 +6203,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6225,7 +6213,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2018-11-05</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6241,11 +6229,6 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Aspbas</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6262,10 +6245,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>75192516</v>
+        <v>75192527</v>
       </c>
       <c r="B49" t="n">
-        <v>98520</v>
+        <v>5113</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6278,21 +6261,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6302,10 +6285,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>650346.8429899226</v>
+        <v>650027.0309406738</v>
       </c>
       <c r="R49" t="n">
-        <v>6648540.007507591</v>
+        <v>6648225.050972298</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6350,6 +6333,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Gnagspår</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -6358,6 +6346,11 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Granlåga, delvis avbarkad</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6374,10 +6367,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>75192551</v>
+        <v>75192500</v>
       </c>
       <c r="B50" t="n">
-        <v>98520</v>
+        <v>90074</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6390,34 +6383,43 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>3298</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Södra Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>649727.906199328</v>
+        <v>649850.8598819324</v>
       </c>
       <c r="R50" t="n">
-        <v>6648811.789007539</v>
+        <v>6648951.181105257</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6444,7 +6446,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6454,7 +6456,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2018-11-05</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6470,6 +6472,11 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Död stående gran</t>
+        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
@@ -6486,10 +6493,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>75192527</v>
+        <v>76544738</v>
       </c>
       <c r="B51" t="n">
-        <v>5113</v>
+        <v>81972</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6498,41 +6505,44 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100526</v>
+        <v>1445</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Gammal barrskog Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>650027.0309406738</v>
+        <v>649925.2184553014</v>
       </c>
       <c r="R51" t="n">
-        <v>6648225.050972298</v>
+        <v>6649087.095848812</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6556,7 +6566,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2019-03-23</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6566,7 +6576,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2018-11-07</t>
+          <t>2019-03-23</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6574,44 +6584,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Gnagspår</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Granlåga, delvis avbarkad</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Anders Haglund</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Anders Haglund</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>75192500</v>
+        <v>76621859</v>
       </c>
       <c r="B52" t="n">
-        <v>90074</v>
+        <v>98520</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6624,46 +6625,41 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3298</v>
+        <v>222498</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Södra Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>649850.8598819324</v>
+        <v>649914.049387534</v>
       </c>
       <c r="R52" t="n">
-        <v>6648951.181105257</v>
+        <v>6649077.615693624</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6687,22 +6683,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6711,30 +6707,26 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Död stående gran</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Owe Rosengren</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76544738</v>
+        <v>76621800</v>
       </c>
       <c r="B53" t="n">
         <v>81972</v>
@@ -6767,23 +6759,31 @@
           <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Gammal barrskog Storvreta, Upl</t>
+          <t>Himmelsvägen, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>649925.2184553014</v>
+        <v>649925.2046247883</v>
       </c>
       <c r="R53" t="n">
-        <v>6649087.095848812</v>
+        <v>6649075.059463935</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6807,22 +6807,27 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2019-03-23</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2019-03-23</t>
+          <t>2019-03-27</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Återfynd</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6835,25 +6840,30 @@
       <c r="AG53" t="b">
         <v>0</v>
       </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>äldre granskog</t>
+        </is>
+      </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Anders Haglund</t>
+          <t>Owe Rosengren</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Anders Haglund</t>
+          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>76621859</v>
+        <v>76883834</v>
       </c>
       <c r="B54" t="n">
-        <v>98520</v>
+        <v>81972</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6862,45 +6872,46 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>1445</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+          <t>(Schmidel:Fr.) Rehm</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>649914.049387534</v>
+        <v>649921.6192182691</v>
       </c>
       <c r="R54" t="n">
-        <v>6649077.615693624</v>
+        <v>6649064.382571468</v>
       </c>
       <c r="S54" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6924,22 +6935,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2019-04-07</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2019-04-07</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6948,26 +6959,25 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Owe Rosengren</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>76621800</v>
+        <v>81674872</v>
       </c>
       <c r="B55" t="n">
         <v>81972</v>
@@ -7002,29 +7012,25 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Storvreta, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>649925.2046247883</v>
+        <v>649933.6962494765</v>
       </c>
       <c r="R55" t="n">
-        <v>6649075.059463935</v>
+        <v>6649063.869745764</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7048,27 +7054,27 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2019-03-27</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Återfynd</t>
+          <t>Känd lokal</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7081,27 +7087,22 @@
       <c r="AG55" t="b">
         <v>0</v>
       </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>äldre granskog</t>
-        </is>
-      </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Owe Rosengren</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Owe Rosengren, Åke Berg, Niklas Hjort, Håkan Lernefalk, Patrick Fritzson</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>76883834</v>
+        <v>81674864</v>
       </c>
       <c r="B56" t="n">
         <v>81972</v>
@@ -7136,23 +7137,25 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>649921.6192182691</v>
+        <v>649948.6532497486</v>
       </c>
       <c r="R56" t="n">
-        <v>6649064.382571468</v>
+        <v>6649041.909500772</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7176,22 +7179,27 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2019-04-07</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Känd lokal.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7200,25 +7208,26 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>81674872</v>
+        <v>16990265</v>
       </c>
       <c r="B57" t="n">
         <v>81972</v>
@@ -7256,22 +7265,24 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>649933.6962494765</v>
+        <v>649958.7512043342</v>
       </c>
       <c r="R57" t="n">
-        <v>6649063.869745764</v>
+        <v>6649028.277430258</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7295,7 +7306,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7305,7 +7316,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7315,7 +7326,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Känd lokal</t>
+          <t>2 ex. i barrförna mellan stora stenblock, äldre granskog.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7324,26 +7335,30 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>Blockrik, äldre granskog.</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>81674864</v>
+        <v>16990266</v>
       </c>
       <c r="B58" t="n">
         <v>81972</v>
@@ -7378,25 +7393,27 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>649948.6532497486</v>
+        <v>649909.617029862</v>
       </c>
       <c r="R58" t="n">
-        <v>6649041.909500772</v>
+        <v>6649075.429845632</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7420,7 +7437,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7430,7 +7447,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2014-03-28</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7440,7 +7457,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Känd lokal.</t>
+          <t>14 ex. i barrförna och i vegetation av vägg- och husmossa samt blåbärsris, i blockrik äldre granskog. Upptäckt av Robert Weimer, Storvreta.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7449,29 +7466,33 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Blockrik, äldre granskog.</t>
+        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16990265</v>
+        <v>82551986</v>
       </c>
       <c r="B59" t="n">
-        <v>81972</v>
+        <v>56540</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7480,50 +7501,49 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1445</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>NV. Slöjmolnsvägen, Upl</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>649958.7512043342</v>
+        <v>649949.9336180199</v>
       </c>
       <c r="R59" t="n">
-        <v>6649028.277430258</v>
+        <v>6649010.366950603</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7547,27 +7567,22 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>2 ex. i barrförna mellan stora stenblock, äldre granskog.</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7578,31 +7593,26 @@
       </c>
       <c r="AG59" t="b">
         <v>0</v>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>Blockrik, äldre granskog.</t>
-        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Håkan Andersson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16990266</v>
+        <v>87987105</v>
       </c>
       <c r="B60" t="n">
-        <v>81972</v>
+        <v>57587</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7611,50 +7621,49 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1445</v>
+        <v>100141</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>(Laurenti, 1768)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>kärr, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>649909.617029862</v>
+        <v>650176.5398906262</v>
       </c>
       <c r="R60" t="n">
-        <v>6649075.429845632</v>
+        <v>6648539.601830478</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7678,7 +7687,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2000-06-01</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7688,7 +7697,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2014-03-28</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7698,7 +7707,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>14 ex. i barrförna och i vegetation av vägg- och husmossa samt blåbärsris, i blockrik äldre granskog. Upptäckt av Robert Weimer, Storvreta.</t>
+          <t>UT och min son har från det vi flyttade till Storvreta sett Större vattensalamander och Mindre vattensalamander i kärret vid Himmelsvägen/Storvreta.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7710,30 +7719,30 @@
       <c r="AG60" t="b">
         <v>0</v>
       </c>
-      <c r="AI60" t="inlineStr">
-        <is>
-          <t>Blockrik, äldre granskog.</t>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Kärr med barrträd</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Elisabeth Fleischer</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Elisabeth Fleischer</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>82551986</v>
+        <v>88027608</v>
       </c>
       <c r="B61" t="n">
-        <v>56540</v>
+        <v>57587</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7742,49 +7751,66 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>103021</v>
+        <v>100141</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Laurenti, 1768)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>NV. Slöjmolnsvägen, Upl</t>
+          <t>Kärret Himmelsvägen ,Storvreta, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>649949.9336180199</v>
+        <v>649979.5920501237</v>
       </c>
       <c r="R61" t="n">
-        <v>6649010.366950603</v>
+        <v>6648539.626991335</v>
       </c>
       <c r="S61" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7808,22 +7834,27 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2000-06-10</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Förekommer varje år i kärret, intill Himmelsvägen i Storvreta</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7832,28 +7863,29 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Christoffer Fruh</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Håkan Andersson</t>
+          <t>Christoffer Fruh</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>87987105</v>
+        <v>88025862</v>
       </c>
       <c r="B62" t="n">
-        <v>57587</v>
+        <v>90008</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7866,45 +7898,44 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100141</v>
+        <v>6031</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>kärr, Storvreta, Upl</t>
+          <t>Blomkålssvamp, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>650176.5398906262</v>
+        <v>650303.434126305</v>
       </c>
       <c r="R62" t="n">
-        <v>6648539.601830478</v>
+        <v>6648458.49077496</v>
       </c>
       <c r="S62" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7928,7 +7959,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2000-06-01</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7938,7 +7969,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7948,7 +7979,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>UT och min son har från det vi flyttade till Storvreta sett Större vattensalamander och Mindre vattensalamander i kärret vid Himmelsvägen/Storvreta.</t>
+          <t>Undertecknad har under flera år träffat på Blomkålssvamp/ Sparassis crispa i området!</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7957,13 +7988,9 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>Kärr med barrträd</t>
-        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
@@ -7980,10 +8007,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>88027608</v>
+        <v>88027752</v>
       </c>
       <c r="B63" t="n">
-        <v>57587</v>
+        <v>57585</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7996,26 +8023,26 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100141</v>
+        <v>208242</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -8024,21 +8051,13 @@
           <t>adult</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>i vatten/simmande</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Kärret Himmelsvägen ,Storvreta, Storvreta, Upl</t>
@@ -8075,7 +8094,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2000-06-10</t>
+          <t>2000-05-31</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -8085,7 +8104,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -8095,7 +8114,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Förekommer varje år i kärret, intill Himmelsvägen i Storvreta</t>
+          <t>Flitigt förekommande i kärret vid Himmelsvägen/ Storvreta</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8123,10 +8142,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>88025862</v>
+        <v>88159445</v>
       </c>
       <c r="B64" t="n">
-        <v>90008</v>
+        <v>88896</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8135,48 +8154,44 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6031</v>
+        <v>720</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Blomkålssvamp, Storvreta, Upl</t>
+          <t>Fulleröskogen 2, Upl</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>650303.434126305</v>
+        <v>650017.9102202069</v>
       </c>
       <c r="R64" t="n">
-        <v>6648458.49077496</v>
+        <v>6648771.394573689</v>
       </c>
       <c r="S64" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8200,7 +8215,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -8210,7 +8225,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8220,7 +8235,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Undertecknad har under flera år träffat på Blomkålssvamp/ Sparassis crispa i området!</t>
+          <t>Häxring ca 2m</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8236,22 +8251,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Elisabeth Fleischer</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Elisabeth Fleischer</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>88027752</v>
+        <v>88159476</v>
       </c>
       <c r="B65" t="n">
-        <v>57585</v>
+        <v>88896</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8260,58 +8275,44 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>208242</v>
+        <v>720</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>i vatten/simmande</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Kärret Himmelsvägen ,Storvreta, Storvreta, Upl</t>
+          <t>Fulleröskogen 2b, Upl</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>649979.5920501237</v>
+        <v>650007.0996209418</v>
       </c>
       <c r="R65" t="n">
-        <v>6648539.626991335</v>
+        <v>6648765.438713368</v>
       </c>
       <c r="S65" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8335,7 +8336,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2000-05-31</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8345,17 +8346,12 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2019-09-01</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Flitigt förekommande i kärret vid Himmelsvägen/ Storvreta</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8371,19 +8367,19 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Christoffer Fruh</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Christoffer Fruh</t>
+          <t>David  Englund</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>88159445</v>
+        <v>88159247</v>
       </c>
       <c r="B66" t="n">
         <v>88896</v>
@@ -8416,20 +8412,28 @@
           <t>(Pers.) Gray</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Fulleröskogen 2, Upl</t>
+          <t>Fulleröskogen 1, Upl</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>650017.9102202069</v>
+        <v>649981.6527977665</v>
       </c>
       <c r="R66" t="n">
-        <v>6648771.394573689</v>
+        <v>6648550.745085942</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8472,11 +8476,6 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Häxring ca 2m</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8504,10 +8503,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88159476</v>
+        <v>88416025</v>
       </c>
       <c r="B67" t="n">
-        <v>88896</v>
+        <v>89392</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8516,25 +8515,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>720</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8543,17 +8542,17 @@
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Fulleröskogen 2b, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>650007.0996209418</v>
+        <v>649978.6800961911</v>
       </c>
       <c r="R67" t="n">
-        <v>6648765.438713368</v>
+        <v>6648747.734162644</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8577,7 +8576,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -8587,12 +8586,17 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>rikligt på granlåga</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8608,22 +8612,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88159247</v>
+        <v>88415103</v>
       </c>
       <c r="B68" t="n">
-        <v>88896</v>
+        <v>90339</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8632,52 +8636,44 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>720</v>
+        <v>4787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Kühner &amp; Romagn.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Fulleröskogen 1, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>649981.6527977665</v>
+        <v>650102.405275509</v>
       </c>
       <c r="R68" t="n">
-        <v>6648550.745085942</v>
+        <v>6648608.312863322</v>
       </c>
       <c r="S68" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8701,7 +8697,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8711,12 +8707,17 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2019-09-01</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>ett par exemplar</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8732,22 +8733,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>David  Englund</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88416025</v>
+        <v>88414937</v>
       </c>
       <c r="B69" t="n">
-        <v>89392</v>
+        <v>90008</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8756,25 +8757,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1202</v>
+        <v>6031</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8787,13 +8788,13 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>649978.6800961911</v>
+        <v>649998.4162223396</v>
       </c>
       <c r="R69" t="n">
-        <v>6648747.734162644</v>
+        <v>6648645.2170744</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8833,11 +8834,6 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>rikligt på granlåga</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8865,10 +8861,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>88415103</v>
+        <v>88538479</v>
       </c>
       <c r="B70" t="n">
-        <v>90339</v>
+        <v>90665</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8881,24 +8877,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4787</v>
+        <v>4366</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -8908,13 +8908,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>650102.405275509</v>
+        <v>649856.8486212983</v>
       </c>
       <c r="R70" t="n">
-        <v>6648608.312863322</v>
+        <v>6649051.223038451</v>
       </c>
       <c r="S70" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -8948,17 +8948,12 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>ett par exemplar</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8986,10 +8981,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>88414937</v>
+        <v>88538630</v>
       </c>
       <c r="B71" t="n">
-        <v>90008</v>
+        <v>90674</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -9002,21 +8997,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6031</v>
+        <v>5964</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9029,13 +9024,13 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>649998.4162223396</v>
+        <v>649990.7966992285</v>
       </c>
       <c r="R71" t="n">
-        <v>6648645.2170744</v>
+        <v>6648560.646001516</v>
       </c>
       <c r="S71" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -9059,7 +9054,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -9069,12 +9064,17 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Inom 20 meters radie finns flera ringar. arten är vanlig i alla grandominerade svackor av skogen.</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -9102,7 +9102,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>88538479</v>
+        <v>88538496</v>
       </c>
       <c r="B72" t="n">
         <v>90665</v>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -9149,10 +9149,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>649856.8486212983</v>
+        <v>649868.3806176679</v>
       </c>
       <c r="R72" t="n">
-        <v>6649051.223038451</v>
+        <v>6648977.468746475</v>
       </c>
       <c r="S72" t="n">
         <v>5</v>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>88538630</v>
+        <v>91487884</v>
       </c>
       <c r="B73" t="n">
-        <v>90674</v>
+        <v>89392</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9234,25 +9234,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5964</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9265,13 +9265,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>649990.7966992285</v>
+        <v>649998.4162223396</v>
       </c>
       <c r="R73" t="n">
-        <v>6648560.646001516</v>
+        <v>6648645.2170744</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -9305,17 +9305,12 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Inom 20 meters radie finns flera ringar. arten är vanlig i alla grandominerade svackor av skogen.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9343,10 +9338,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88538496</v>
+        <v>92107012</v>
       </c>
       <c r="B74" t="n">
-        <v>90665</v>
+        <v>98520</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9359,44 +9354,49 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Cykelvägen, Slöjmolnsväegn, Upl</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>649868.3806176679</v>
+        <v>649991.8176454952</v>
       </c>
       <c r="R74" t="n">
-        <v>6648977.468746475</v>
+        <v>6649018.085362031</v>
       </c>
       <c r="S74" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9420,22 +9420,22 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9444,29 +9444,28 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Bengt Neiss</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>91487884</v>
+        <v>96153766</v>
       </c>
       <c r="B75" t="n">
-        <v>89392</v>
+        <v>85172</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9475,44 +9474,42 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1202</v>
+        <v>442</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bullspindling</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cortinarius corrosus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>649998.4162223396</v>
+        <v>649874.0641054707</v>
       </c>
       <c r="R75" t="n">
-        <v>6648645.2170744</v>
+        <v>6649085.020045049</v>
       </c>
       <c r="S75" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9536,7 +9533,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -9546,7 +9543,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -9560,29 +9557,28 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>92107012</v>
+        <v>96187232</v>
       </c>
       <c r="B76" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9595,46 +9591,37 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Cykelvägen, Slöjmolnsväegn, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>649991.8176454952</v>
+        <v>650168.6425140236</v>
       </c>
       <c r="R76" t="n">
-        <v>6649018.085362031</v>
+        <v>6648560.848235592</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9661,22 +9648,27 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>förekommer rikligt i skogsområdet. stora exemplar och stora, täta ringar finns.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9685,28 +9677,29 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Bengt Neiss</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>96153766</v>
+        <v>96187044</v>
       </c>
       <c r="B77" t="n">
-        <v>85172</v>
+        <v>88921</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9715,42 +9708,44 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>442</v>
+        <v>5741</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bullspindling</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Cortinarius corrosus</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>649874.0641054707</v>
+        <v>650108.6112923591</v>
       </c>
       <c r="R77" t="n">
-        <v>6649085.020045049</v>
+        <v>6648739.97105081</v>
       </c>
       <c r="S77" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9774,7 +9769,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9784,7 +9779,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9798,28 +9793,29 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>96187232</v>
+        <v>96187129</v>
       </c>
       <c r="B78" t="n">
-        <v>90674</v>
+        <v>90319</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9832,21 +9828,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9859,10 +9855,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>650168.6425140236</v>
+        <v>650140.5394960955</v>
       </c>
       <c r="R78" t="n">
-        <v>6648560.848235592</v>
+        <v>6648584.784313248</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9909,7 +9905,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>förekommer rikligt i skogsområdet. stora exemplar och stora, täta ringar finns.</t>
+          <t>vanlig i denna granskog</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9937,10 +9933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>96187044</v>
+        <v>96214327</v>
       </c>
       <c r="B79" t="n">
-        <v>88921</v>
+        <v>85301</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9949,44 +9945,42 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5741</v>
+        <v>3739</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>650108.6112923591</v>
+        <v>649916.3037831903</v>
       </c>
       <c r="R79" t="n">
-        <v>6648739.97105081</v>
+        <v>6648984.929825474</v>
       </c>
       <c r="S79" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -10010,7 +10004,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -10020,7 +10014,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -10034,29 +10028,28 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>96187129</v>
+        <v>96308849</v>
       </c>
       <c r="B80" t="n">
-        <v>90319</v>
+        <v>88921</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -10069,21 +10062,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4769</v>
+        <v>5741</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -10092,14 +10085,14 @@
       <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>kalkbarrskog väster om himmelsvägen, Upl</t>
+          <t>Barrskog SV Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>650140.5394960955</v>
+        <v>650196.6441188324</v>
       </c>
       <c r="R80" t="n">
-        <v>6648584.784313248</v>
+        <v>6648539.415906242</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -10126,7 +10119,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
@@ -10136,17 +10129,12 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2021-09-26</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>vanlig i denna granskog</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -10174,10 +10162,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>96214327</v>
+        <v>96746403</v>
       </c>
       <c r="B81" t="n">
-        <v>85301</v>
+        <v>89412</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10190,38 +10178,40 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3739</v>
+        <v>5442</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>barrblandskog N vintergatsvägen, Upl</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>649916.3037831903</v>
+        <v>650057.0445075793</v>
       </c>
       <c r="R81" t="n">
-        <v>6648984.929825474</v>
+        <v>6649366.253520134</v>
       </c>
       <c r="S81" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -10245,7 +10235,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -10255,7 +10245,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2021-10-17</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -10269,28 +10259,29 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>96308849</v>
+        <v>97742393</v>
       </c>
       <c r="B82" t="n">
-        <v>88921</v>
+        <v>90674</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10303,21 +10294,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5741</v>
+        <v>5964</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10326,17 +10317,17 @@
       <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Barrskog SV Himmelsvägen, Upl</t>
+          <t>Storvreta SV, Upl</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>650196.6441188324</v>
+        <v>649873.6361577424</v>
       </c>
       <c r="R82" t="n">
-        <v>6648539.415906242</v>
+        <v>6649058.423540089</v>
       </c>
       <c r="S82" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10360,7 +10351,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -10370,7 +10361,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -10391,22 +10382,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Håkan Lernefalk</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Håkan Lernefalk</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>97742393</v>
+        <v>98639094</v>
       </c>
       <c r="B83" t="n">
-        <v>90674</v>
+        <v>85254</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10419,40 +10410,37 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5964</v>
+        <v>249228</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Storvreta SV, Upl</t>
+          <t>Sverige, Upl</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>649873.6361577424</v>
+        <v>649853.8254448548</v>
       </c>
       <c r="R83" t="n">
-        <v>6649058.423540089</v>
+        <v>6649039.064480114</v>
       </c>
       <c r="S83" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10476,7 +10464,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10486,7 +10474,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10500,29 +10488,28 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>98639094</v>
+        <v>98639067</v>
       </c>
       <c r="B84" t="n">
-        <v>85254</v>
+        <v>85301</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10531,25 +10518,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>249228</v>
+        <v>3739</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10559,10 +10546,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>649853.8254448548</v>
+        <v>649844.3151867579</v>
       </c>
       <c r="R84" t="n">
-        <v>6649039.064480114</v>
+        <v>6649001.066208675</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10631,10 +10618,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>98639067</v>
+        <v>103428243</v>
       </c>
       <c r="B85" t="n">
-        <v>85301</v>
+        <v>90008</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10643,38 +10630,45 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3739</v>
+        <v>6031</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Quél.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sverige, Upl</t>
+          <t>barrskog V Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>649844.3151867579</v>
+        <v>650325.4054360926</v>
       </c>
       <c r="R85" t="n">
-        <v>6649001.066208675</v>
+        <v>6648424.775329884</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10701,7 +10695,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10711,7 +10705,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10719,34 +10713,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>vid foten av tall norr om stig.</t>
+        </is>
+      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Gry Benediktson</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>103428243</v>
+        <v>85576877</v>
       </c>
       <c r="B86" t="n">
-        <v>90008</v>
+        <v>57587</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10759,21 +10759,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6031</v>
+        <v>100141</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Laurenti, 1768)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10781,19 +10781,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>slag-/vattenhåvning</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>barrskog V Himmelsvägen, Upl</t>
+          <t>Salamanderkärret, Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>650325.4054360926</v>
+        <v>649983.3425768835</v>
       </c>
       <c r="R86" t="n">
-        <v>6648424.775329884</v>
+        <v>6648694.760004896</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10820,27 +10842,27 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>vid foten av tall norr om stig.</t>
+          <t>Fint exemplar, hona, ca. 16 cm lång med svans. Svart och knottrig med orange/gul spräcklig mage.  Salamandrar har observerats i kärret sedan början av 90-talet. Den lilla skogen runt kärret är fin med mycket död ved. Det finns ett mindre kärr norr om fyndplatsen. Det finns ett dräneringsdike i den södra delen av vårmarken som inte lyckats dränera det. Kärren är igenväxta men flera vattenspeglar finns.</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10856,22 +10878,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Robert Harlin</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Gry Benediktson</t>
+          <t>Robert Harlin</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>85576877</v>
+        <v>107841893</v>
       </c>
       <c r="B87" t="n">
-        <v>57587</v>
+        <v>89392</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10880,70 +10902,42 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100141</v>
+        <v>1202</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>i vatten/simmande</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>slag-/vattenhåvning</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Salamanderkärret, Storvreta, Upl</t>
+          <t>Fullerömyren, Upl</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>649983.3425768835</v>
+        <v>650121.3830034449</v>
       </c>
       <c r="R87" t="n">
-        <v>6648694.760004896</v>
+        <v>6648648.205299131</v>
       </c>
       <c r="S87" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10967,27 +10961,22 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Fint exemplar, hona, ca. 16 cm lång med svans. Svart och knottrig med orange/gul spräcklig mage.  Salamandrar har observerats i kärret sedan början av 90-talet. Den lilla skogen runt kärret är fin med mycket död ved. Det finns ett mindre kärr norr om fyndplatsen. Det finns ett dräneringsdike i den södra delen av vårmarken som inte lyckats dränera det. Kärren är igenväxta men flera vattenspeglar finns.</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10996,29 +10985,28 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Robert Harlin</t>
+          <t>Samuel Persson</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Robert Harlin</t>
+          <t>Samuel Persson</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>107841893</v>
+        <v>107839427</v>
       </c>
       <c r="B88" t="n">
-        <v>89392</v>
+        <v>89940</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -11027,39 +11015,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1202</v>
+        <v>3884</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Fullerömyren, Upl</t>
+          <t>Skarpan, Upl</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>650121.3830034449</v>
+        <v>649859.3531147883</v>
       </c>
       <c r="R88" t="n">
-        <v>6648648.205299131</v>
+        <v>6648977.102519212</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -11091,7 +11079,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -11101,7 +11089,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -11128,10 +11116,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>107839427</v>
+        <v>107841560</v>
       </c>
       <c r="B89" t="n">
-        <v>89940</v>
+        <v>89392</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -11140,39 +11128,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3884</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Skarpan, Upl</t>
+          <t>Storvreta, Upl</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>649859.3531147883</v>
+        <v>650076.6066440826</v>
       </c>
       <c r="R89" t="n">
-        <v>6648977.102519212</v>
+        <v>6648711.587521225</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -11204,7 +11192,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -11214,7 +11202,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11241,10 +11229,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>107841560</v>
+        <v>107848142</v>
       </c>
       <c r="B90" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11253,39 +11241,41 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Storvreta, Upl</t>
+          <t>Skarpan, Upl</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>650076.6066440826</v>
+        <v>649895.5850182869</v>
       </c>
       <c r="R90" t="n">
-        <v>6648711.587521225</v>
+        <v>6648975.56346914</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11317,7 +11307,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -11327,7 +11317,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11336,6 +11326,7 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
@@ -11354,10 +11345,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>107848142</v>
+        <v>107839659</v>
       </c>
       <c r="B91" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11366,31 +11357,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Skarpan, Upl</t>
@@ -11432,7 +11421,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11442,7 +11431,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11451,7 +11440,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11470,10 +11458,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>107839659</v>
+        <v>107917446</v>
       </c>
       <c r="B92" t="n">
-        <v>89392</v>
+        <v>89940</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11482,42 +11470,44 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1202</v>
+        <v>3884</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Skarpan, Upl</t>
+          <t>Storvreta SV, Upl</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>649895.5850182869</v>
+        <v>649873.6361577424</v>
       </c>
       <c r="R92" t="n">
-        <v>6648975.56346914</v>
+        <v>6649058.423540089</v>
       </c>
       <c r="S92" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -11541,22 +11531,22 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2023-04-05</t>
+          <t>2023-04-07</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11565,28 +11555,29 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
+      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Samuel Persson</t>
+          <t>Håkan Lernefalk</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Samuel Persson</t>
+          <t>Håkan Lernefalk</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>107917446</v>
+        <v>108670120</v>
       </c>
       <c r="B93" t="n">
-        <v>89940</v>
+        <v>81972</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11595,25 +11586,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3884</v>
+        <v>1445</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Sarcosoma globosum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Schmidel:Fr.) Rehm</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11622,14 +11613,14 @@
       <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Storvreta SV, Upl</t>
+          <t>Himmelsvägen, Upl</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>649873.6361577424</v>
+        <v>649922.3442512245</v>
       </c>
       <c r="R93" t="n">
-        <v>6649058.423540089</v>
+        <v>6649058.895549387</v>
       </c>
       <c r="S93" t="n">
         <v>50</v>
@@ -11656,7 +11647,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2023-04-07</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -11666,7 +11657,7 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2023-04-07</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
@@ -11674,8 +11665,13 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Ej återfunnen på tidigare känd lokal. Dålig status. Nästan alla granar i skogen har dött av granbarkborreangrepp. Båda delpopulationerna eftersökta.</t>
+        </is>
+      </c>
       <c r="AD93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE93" t="b">
         <v>0</v>
@@ -11687,22 +11683,26 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
+          <t>Moa Pettersson</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Håkan Lernefalk</t>
-        </is>
-      </c>
-      <c r="AY93" t="inlineStr"/>
+          <t>Moa Pettersson, Björn Larsson</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr">
+        <is>
+          <t>Uppföljning bombmurkla 2023</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>108670120</v>
+        <v>111056277</v>
       </c>
       <c r="B94" t="n">
-        <v>81972</v>
+        <v>89405</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11711,44 +11711,41 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1445</v>
+        <v>1202</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Sarcosoma globosum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Schmidel:Fr.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Himmelsvägen, Upl</t>
+          <t>Ekebylund, Upl</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>649922.3442512245</v>
+        <v>649920.2083246801</v>
       </c>
       <c r="R94" t="n">
-        <v>6649058.895549387</v>
+        <v>6648764.92085006</v>
       </c>
       <c r="S94" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11772,7 +11769,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11782,7 +11779,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11790,44 +11787,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Ej återfunnen på tidigare känd lokal. Dålig status. Nästan alla granar i skogen har dött av granbarkborreangrepp. Båda delpopulationerna eftersökta.</t>
-        </is>
-      </c>
       <c r="AD94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Moa Pettersson</t>
+          <t>Karolina Bruce</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Moa Pettersson, Björn Larsson</t>
-        </is>
-      </c>
-      <c r="AY94" t="inlineStr">
-        <is>
-          <t>Uppföljning bombmurkla 2023</t>
-        </is>
-      </c>
+          <t>Erik Lagerin</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111056277</v>
+        <v>111056282</v>
       </c>
       <c r="B95" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11840,34 +11827,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Ekebylund, Upl</t>
+          <t>Vretalund, Upl</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>649920.2083246801</v>
+        <v>649991.7194493939</v>
       </c>
       <c r="R95" t="n">
-        <v>6648764.92085006</v>
+        <v>6648636.920350144</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11936,7 +11923,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111056282</v>
+        <v>111056258</v>
       </c>
       <c r="B96" t="n">
         <v>56414</v>
@@ -11970,16 +11957,24 @@
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Vretalund, Upl</t>
+          <t>Ekeby, Upl</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>649991.7194493939</v>
+        <v>649873.346980502</v>
       </c>
       <c r="R96" t="n">
-        <v>6648636.920350144</v>
+        <v>6649313.162568272</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -12006,7 +12001,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
@@ -12016,12 +12011,17 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>gick ner Ö om obj</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Erik Lagerin</t>
+          <t>Liam Martin</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
@@ -13803,10 +13803,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112139372</v>
+        <v>112139297</v>
       </c>
       <c r="B112" t="n">
-        <v>90826</v>
+        <v>89057</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13815,25 +13815,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4366</v>
+        <v>720</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13846,10 +13846,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>649886</v>
+        <v>650012</v>
       </c>
       <c r="R112" t="n">
-        <v>6648971</v>
+        <v>6648763</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -13882,11 +13882,6 @@
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>På/intill stigen</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -13914,10 +13909,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112139297</v>
+        <v>112139372</v>
       </c>
       <c r="B113" t="n">
-        <v>89057</v>
+        <v>90826</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13926,25 +13921,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>720</v>
+        <v>4366</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13957,10 +13952,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>650012</v>
+        <v>649886</v>
       </c>
       <c r="R113" t="n">
-        <v>6648763</v>
+        <v>6648971</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13993,6 +13988,11 @@
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>På/intill stigen</t>
         </is>
       </c>
       <c r="AD113" t="b">
